--- a/production/data/dates.xlsx
+++ b/production/data/dates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25680" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="161">
   <si>
     <t>poetid</t>
   </si>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t>death date unclear</t>
-  </si>
-  <si>
-    <t>no dates?</t>
   </si>
   <si>
     <t>not the Lesbian iambic poet</t>
@@ -595,9 +592,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -736,7 +735,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="88">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -780,6 +779,7 @@
     <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -822,6 +822,7 @@
     <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1092,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1100,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F582"/>
+  <dimension ref="A1:F586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A561" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C583" sqref="C583"/>
+    <sheetView tabSelected="1" topLeftCell="A375" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C390" sqref="C390:C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1298,7 +1299,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>CONCATENATE("0",C13,"-01-01")</f>
+        <f t="shared" ref="D13:D19" si="0">CONCATENATE("0",C13,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -1313,7 +1314,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f>CONCATENATE("0",C14,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -1328,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f>CONCATENATE("0",C15,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -1343,7 +1344,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f>CONCATENATE("0",C16,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -1358,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f>CONCATENATE("0",C17,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -1373,7 +1374,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f>CONCATENATE("0",C18,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -1388,7 +1389,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f>CONCATENATE("0",C19,"-01-01")</f>
+        <f t="shared" si="0"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -1878,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="D55" s="9" t="str">
-        <f>CONCATENATE("0",C55,"-01-01")</f>
+        <f t="shared" ref="D55:D77" si="1">CONCATENATE("0",C55,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -1893,7 +1894,7 @@
         <v>49</v>
       </c>
       <c r="D56" s="9" t="str">
-        <f>CONCATENATE("0",C56,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -1908,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="9" t="str">
-        <f>CONCATENATE("0",C57,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -1923,7 +1924,7 @@
         <v>49</v>
       </c>
       <c r="D58" s="9" t="str">
-        <f>CONCATENATE("0",C58,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -1938,7 +1939,7 @@
         <v>50</v>
       </c>
       <c r="D59" s="9" t="str">
-        <f>CONCATENATE("0",C59,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -1953,7 +1954,7 @@
         <v>47</v>
       </c>
       <c r="D60" s="9" t="str">
-        <f>CONCATENATE("0",C60,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -1968,7 +1969,7 @@
         <v>49</v>
       </c>
       <c r="D61" s="9" t="str">
-        <f>CONCATENATE("0",C61,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -1983,7 +1984,7 @@
         <v>44</v>
       </c>
       <c r="D62" s="9" t="str">
-        <f>CONCATENATE("0",C62,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -1998,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="D63" s="9" t="str">
-        <f>CONCATENATE("0",C63,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -2013,7 +2014,7 @@
         <v>46</v>
       </c>
       <c r="D64" s="9" t="str">
-        <f>CONCATENATE("0",C64,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -2028,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="D65" s="9" t="str">
-        <f>CONCATENATE("0",C65,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -2043,7 +2044,7 @@
         <v>49</v>
       </c>
       <c r="D66" s="9" t="str">
-        <f>CONCATENATE("0",C66,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -2058,7 +2059,7 @@
         <v>47</v>
       </c>
       <c r="D67" s="9" t="str">
-        <f>CONCATENATE("0",C67,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -2073,7 +2074,7 @@
         <v>49</v>
       </c>
       <c r="D68" s="9" t="str">
-        <f>CONCATENATE("0",C68,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -2088,7 +2089,7 @@
         <v>50</v>
       </c>
       <c r="D69" s="9" t="str">
-        <f>CONCATENATE("0",C69,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -2103,7 +2104,7 @@
         <v>50</v>
       </c>
       <c r="D70" s="9" t="str">
-        <f>CONCATENATE("0",C70,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -2118,7 +2119,7 @@
         <v>51</v>
       </c>
       <c r="D71" s="9" t="str">
-        <f>CONCATENATE("0",C71,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0350-01-01</v>
       </c>
     </row>
@@ -2133,7 +2134,7 @@
         <v>52</v>
       </c>
       <c r="D72" s="9" t="str">
-        <f>CONCATENATE("0",C72,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0325-01-01</v>
       </c>
     </row>
@@ -2148,7 +2149,7 @@
         <v>53</v>
       </c>
       <c r="D73" s="9" t="str">
-        <f>CONCATENATE("0",C73,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0300-01-01</v>
       </c>
     </row>
@@ -2163,7 +2164,7 @@
         <v>47</v>
       </c>
       <c r="D74" s="9" t="str">
-        <f>CONCATENATE("0",C74,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -2178,7 +2179,7 @@
         <v>49</v>
       </c>
       <c r="D75" s="9" t="str">
-        <f>CONCATENATE("0",C75,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -2193,7 +2194,7 @@
         <v>47</v>
       </c>
       <c r="D76" s="9" t="str">
-        <f>CONCATENATE("0",C76,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -2208,7 +2209,7 @@
         <v>49</v>
       </c>
       <c r="D77" s="9" t="str">
-        <f>CONCATENATE("0",C77,"-01-01")</f>
+        <f t="shared" si="1"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -2757,7 +2758,7 @@
         <v>104</v>
       </c>
       <c r="C117" s="18">
-        <f>C116-25</f>
+        <f t="shared" ref="C117:C124" si="2">C116-25</f>
         <v>575</v>
       </c>
       <c r="D117" s="9"/>
@@ -2771,7 +2772,7 @@
         <v>104</v>
       </c>
       <c r="C118" s="18">
-        <f>C117-25</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="D118" s="9"/>
@@ -2785,7 +2786,7 @@
         <v>104</v>
       </c>
       <c r="C119" s="18">
-        <f>C118-25</f>
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
       <c r="D119" s="9"/>
@@ -2799,7 +2800,7 @@
         <v>104</v>
       </c>
       <c r="C120" s="18">
-        <f>C119-25</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="D120" s="9"/>
@@ -2813,7 +2814,7 @@
         <v>104</v>
       </c>
       <c r="C121" s="18">
-        <f>C120-25</f>
+        <f t="shared" si="2"/>
         <v>475</v>
       </c>
       <c r="D121" s="9"/>
@@ -2827,7 +2828,7 @@
         <v>104</v>
       </c>
       <c r="C122" s="18">
-        <f>C121-25</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="D122" s="9"/>
@@ -2841,7 +2842,7 @@
         <v>104</v>
       </c>
       <c r="C123" s="18">
-        <f>C122-25</f>
+        <f t="shared" si="2"/>
         <v>425</v>
       </c>
       <c r="D123" s="9"/>
@@ -2855,7 +2856,7 @@
         <v>104</v>
       </c>
       <c r="C124" s="18">
-        <f>C123-25</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="D124" s="9"/>
@@ -2921,7 +2922,7 @@
         <v>106</v>
       </c>
       <c r="C129" s="18">
-        <f>C128-25</f>
+        <f t="shared" ref="C129:C136" si="3">C128-25</f>
         <v>575</v>
       </c>
       <c r="D129" s="9"/>
@@ -2935,7 +2936,7 @@
         <v>106</v>
       </c>
       <c r="C130" s="18">
-        <f>C129-25</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="D130" s="9"/>
@@ -2949,7 +2950,7 @@
         <v>106</v>
       </c>
       <c r="C131" s="18">
-        <f>C130-25</f>
+        <f t="shared" si="3"/>
         <v>525</v>
       </c>
       <c r="D131" s="9"/>
@@ -2963,7 +2964,7 @@
         <v>106</v>
       </c>
       <c r="C132" s="18">
-        <f>C131-25</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="D132" s="9"/>
@@ -2977,7 +2978,7 @@
         <v>106</v>
       </c>
       <c r="C133" s="18">
-        <f>C132-25</f>
+        <f t="shared" si="3"/>
         <v>475</v>
       </c>
       <c r="D133" s="9"/>
@@ -2991,7 +2992,7 @@
         <v>106</v>
       </c>
       <c r="C134" s="18">
-        <f>C133-25</f>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="D134" s="9"/>
@@ -3005,7 +3006,7 @@
         <v>106</v>
       </c>
       <c r="C135" s="18">
-        <f>C134-25</f>
+        <f t="shared" si="3"/>
         <v>425</v>
       </c>
       <c r="D135" s="9"/>
@@ -3019,7 +3020,7 @@
         <v>106</v>
       </c>
       <c r="C136" s="18">
-        <f>C135-25</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="D136" s="9"/>
@@ -3104,7 +3105,7 @@
         <v>44</v>
       </c>
       <c r="D142" s="9" t="str">
-        <f>CONCATENATE("0",C142,"-01-01")</f>
+        <f t="shared" ref="D142:D164" si="4">CONCATENATE("0",C142,"-01-01")</f>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -3119,7 +3120,7 @@
         <v>45</v>
       </c>
       <c r="D143" s="9" t="str">
-        <f>CONCATENATE("0",C143,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -3134,7 +3135,7 @@
         <v>46</v>
       </c>
       <c r="D144" s="9" t="str">
-        <f>CONCATENATE("0",C144,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -3149,7 +3150,7 @@
         <v>47</v>
       </c>
       <c r="D145" s="9" t="str">
-        <f>CONCATENATE("0",C145,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3164,7 +3165,7 @@
         <v>49</v>
       </c>
       <c r="D146" s="9" t="str">
-        <f>CONCATENATE("0",C146,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3179,7 +3180,7 @@
         <v>44</v>
       </c>
       <c r="D147" s="9" t="str">
-        <f>CONCATENATE("0",C147,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -3194,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="D148" s="9" t="str">
-        <f>CONCATENATE("0",C148,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -3209,7 +3210,7 @@
         <v>46</v>
       </c>
       <c r="D149" s="9" t="str">
-        <f>CONCATENATE("0",C149,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -3224,7 +3225,7 @@
         <v>47</v>
       </c>
       <c r="D150" s="9" t="str">
-        <f>CONCATENATE("0",C150,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3239,7 +3240,7 @@
         <v>49</v>
       </c>
       <c r="D151" s="9" t="str">
-        <f>CONCATENATE("0",C151,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3254,7 +3255,7 @@
         <v>425</v>
       </c>
       <c r="D152" s="9" t="str">
-        <f>CONCATENATE("0",C152,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3269,7 +3270,7 @@
         <v>400</v>
       </c>
       <c r="D153" s="9" t="str">
-        <f>CONCATENATE("0",C153,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3284,7 +3285,7 @@
         <v>375</v>
       </c>
       <c r="D154" s="9" t="str">
-        <f>CONCATENATE("0",C154,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -3299,7 +3300,7 @@
         <v>44</v>
       </c>
       <c r="D155" s="9" t="str">
-        <f>CONCATENATE("0",C155,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -3314,7 +3315,7 @@
         <v>45</v>
       </c>
       <c r="D156" s="9" t="str">
-        <f>CONCATENATE("0",C156,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -3329,7 +3330,7 @@
         <v>46</v>
       </c>
       <c r="D157" s="9" t="str">
-        <f>CONCATENATE("0",C157,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -3344,7 +3345,7 @@
         <v>47</v>
       </c>
       <c r="D158" s="9" t="str">
-        <f>CONCATENATE("0",C158,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3359,7 +3360,7 @@
         <v>49</v>
       </c>
       <c r="D159" s="9" t="str">
-        <f>CONCATENATE("0",C159,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3374,7 +3375,7 @@
         <v>44</v>
       </c>
       <c r="D160" s="9" t="str">
-        <f>CONCATENATE("0",C160,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0500-01-01</v>
       </c>
     </row>
@@ -3389,7 +3390,7 @@
         <v>45</v>
       </c>
       <c r="D161" s="9" t="str">
-        <f>CONCATENATE("0",C161,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0475-01-01</v>
       </c>
     </row>
@@ -3404,7 +3405,7 @@
         <v>46</v>
       </c>
       <c r="D162" s="9" t="str">
-        <f>CONCATENATE("0",C162,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0450-01-01</v>
       </c>
     </row>
@@ -3419,7 +3420,7 @@
         <v>47</v>
       </c>
       <c r="D163" s="9" t="str">
-        <f>CONCATENATE("0",C163,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3434,7 +3435,7 @@
         <v>49</v>
       </c>
       <c r="D164" s="9" t="str">
-        <f>CONCATENATE("0",C164,"-01-01")</f>
+        <f t="shared" si="4"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3460,7 +3461,7 @@
         <v>109</v>
       </c>
       <c r="C166" s="18">
-        <f>C165-25</f>
+        <f t="shared" ref="C166:C173" si="5">C165-25</f>
         <v>475</v>
       </c>
       <c r="D166" s="9"/>
@@ -3474,7 +3475,7 @@
         <v>109</v>
       </c>
       <c r="C167" s="18">
-        <f>C166-25</f>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="D167" s="9"/>
@@ -3488,7 +3489,7 @@
         <v>109</v>
       </c>
       <c r="C168" s="18">
-        <f>C167-25</f>
+        <f t="shared" si="5"/>
         <v>425</v>
       </c>
       <c r="D168" s="9"/>
@@ -3502,7 +3503,7 @@
         <v>109</v>
       </c>
       <c r="C169" s="18">
-        <f>C168-25</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="D169" s="9"/>
@@ -3516,7 +3517,7 @@
         <v>109</v>
       </c>
       <c r="C170" s="18">
-        <f>C169-25</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="D170" s="9"/>
@@ -3530,7 +3531,7 @@
         <v>109</v>
       </c>
       <c r="C171" s="18">
-        <f>C170-25</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="D171" s="9"/>
@@ -3544,7 +3545,7 @@
         <v>109</v>
       </c>
       <c r="C172" s="18">
-        <f>C171-25</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="D172" s="9"/>
@@ -3558,7 +3559,7 @@
         <v>109</v>
       </c>
       <c r="C173" s="18">
-        <f>C172-25</f>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="D173" s="9"/>
@@ -3574,7 +3575,7 @@
         <v>425</v>
       </c>
       <c r="D174" s="9" t="str">
-        <f>CONCATENATE("0",C174,"-01-01")</f>
+        <f t="shared" ref="D174:D181" si="6">CONCATENATE("0",C174,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
     </row>
@@ -3589,7 +3590,7 @@
         <v>400</v>
       </c>
       <c r="D175" s="9" t="str">
-        <f>CONCATENATE("0",C175,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0400-01-01</v>
       </c>
     </row>
@@ -3604,7 +3605,7 @@
         <v>375</v>
       </c>
       <c r="D176" s="9" t="str">
-        <f>CONCATENATE("0",C176,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0375-01-01</v>
       </c>
     </row>
@@ -3619,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="D177" s="9" t="str">
-        <f>CONCATENATE("0",C177,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0500-01-01</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -3637,7 +3638,7 @@
         <v>45</v>
       </c>
       <c r="D178" s="9" t="str">
-        <f>CONCATENATE("0",C178,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0475-01-01</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -3655,7 +3656,7 @@
         <v>46</v>
       </c>
       <c r="D179" s="9" t="str">
-        <f>CONCATENATE("0",C179,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0450-01-01</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -3674,7 +3675,7 @@
         <v>47</v>
       </c>
       <c r="D180" s="9" t="str">
-        <f>CONCATENATE("0",C180,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0425-01-01</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -3693,7 +3694,7 @@
         <v>49</v>
       </c>
       <c r="D181" s="9" t="str">
-        <f>CONCATENATE("0",C181,"-01-01")</f>
+        <f t="shared" si="6"/>
         <v>0400-01-01</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -3723,7 +3724,7 @@
         <v>111</v>
       </c>
       <c r="C183" s="18">
-        <f>C182-25</f>
+        <f t="shared" ref="C183:C190" si="7">C182-25</f>
         <v>675</v>
       </c>
       <c r="D183" s="9"/>
@@ -3737,7 +3738,7 @@
         <v>111</v>
       </c>
       <c r="C184" s="18">
-        <f>C183-25</f>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="D184" s="9"/>
@@ -3751,7 +3752,7 @@
         <v>111</v>
       </c>
       <c r="C185" s="18">
-        <f>C184-25</f>
+        <f t="shared" si="7"/>
         <v>625</v>
       </c>
       <c r="D185" s="9"/>
@@ -3765,7 +3766,7 @@
         <v>111</v>
       </c>
       <c r="C186" s="18">
-        <f>C185-25</f>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="D186" s="9"/>
@@ -3779,7 +3780,7 @@
         <v>111</v>
       </c>
       <c r="C187" s="18">
-        <f>C186-25</f>
+        <f t="shared" si="7"/>
         <v>575</v>
       </c>
       <c r="D187" s="9"/>
@@ -3793,7 +3794,7 @@
         <v>111</v>
       </c>
       <c r="C188" s="18">
-        <f>C187-25</f>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="D188" s="9"/>
@@ -3807,7 +3808,7 @@
         <v>111</v>
       </c>
       <c r="C189" s="18">
-        <f>C188-25</f>
+        <f t="shared" si="7"/>
         <v>525</v>
       </c>
       <c r="D189" s="9"/>
@@ -3821,7 +3822,7 @@
         <v>111</v>
       </c>
       <c r="C190" s="18">
-        <f>C189-25</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="D190" s="9"/>
@@ -3837,7 +3838,7 @@
         <v>425</v>
       </c>
       <c r="D191" s="9" t="str">
-        <f>CONCATENATE("0",C191,"-01-01")</f>
+        <f t="shared" ref="D191:D203" si="8">CONCATENATE("0",C191,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
       <c r="F191" s="3"/>
@@ -3853,7 +3854,7 @@
         <v>400</v>
       </c>
       <c r="D192" s="9" t="str">
-        <f>CONCATENATE("0",C192,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0400-01-01</v>
       </c>
       <c r="F192" s="3"/>
@@ -3869,7 +3870,7 @@
         <v>375</v>
       </c>
       <c r="D193" s="9" t="str">
-        <f>CONCATENATE("0",C193,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0375-01-01</v>
       </c>
       <c r="F193" s="3"/>
@@ -3885,7 +3886,7 @@
         <v>46</v>
       </c>
       <c r="D194" s="9" t="str">
-        <f>CONCATENATE("0",C194,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0450-01-01</v>
       </c>
       <c r="F194" s="3"/>
@@ -3901,7 +3902,7 @@
         <v>47</v>
       </c>
       <c r="D195" s="9" t="str">
-        <f>CONCATENATE("0",C195,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0425-01-01</v>
       </c>
       <c r="F195" s="3"/>
@@ -3917,7 +3918,7 @@
         <v>49</v>
       </c>
       <c r="D196" s="9" t="str">
-        <f>CONCATENATE("0",C196,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0400-01-01</v>
       </c>
       <c r="F196" s="3"/>
@@ -3933,7 +3934,7 @@
         <v>475</v>
       </c>
       <c r="D197" s="9" t="str">
-        <f>CONCATENATE("0",C197,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0475-01-01</v>
       </c>
       <c r="F197" s="3"/>
@@ -3949,7 +3950,7 @@
         <v>450</v>
       </c>
       <c r="D198" s="9" t="str">
-        <f>CONCATENATE("0",C198,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0450-01-01</v>
       </c>
       <c r="F198" s="3"/>
@@ -3965,7 +3966,7 @@
         <v>425</v>
       </c>
       <c r="D199" s="9" t="str">
-        <f>CONCATENATE("0",C199,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0425-01-01</v>
       </c>
       <c r="F199" s="3"/>
@@ -3981,14 +3982,14 @@
         <v>400</v>
       </c>
       <c r="D200" s="9" t="str">
-        <f>CONCATENATE("0",C200,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0400-01-01</v>
       </c>
       <c r="F200" s="3"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B201" s="9">
         <v>44</v>
@@ -3997,14 +3998,14 @@
         <v>46</v>
       </c>
       <c r="D201" s="9" t="str">
-        <f>CONCATENATE("0",C201,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0450-01-01</v>
       </c>
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B202" s="9">
         <v>44</v>
@@ -4013,14 +4014,14 @@
         <v>47</v>
       </c>
       <c r="D202" s="9" t="str">
-        <f>CONCATENATE("0",C202,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0425-01-01</v>
       </c>
       <c r="F202" s="3"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B203" s="9">
         <v>44</v>
@@ -4029,14 +4030,14 @@
         <v>49</v>
       </c>
       <c r="D203" s="9" t="str">
-        <f>CONCATENATE("0",C203,"-01-01")</f>
+        <f t="shared" si="8"/>
         <v>0400-01-01</v>
       </c>
       <c r="F203" s="3"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B204" s="9">
         <v>112</v>
@@ -4048,7 +4049,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B205" s="9">
         <v>112</v>
@@ -4061,7 +4062,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B206" s="9">
         <v>112</v>
@@ -4074,7 +4075,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B207" s="9">
         <v>112</v>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B208" s="9">
         <v>112</v>
@@ -4200,7 +4201,7 @@
         <v>113</v>
       </c>
       <c r="C215" s="18">
-        <f>C214-25</f>
+        <f t="shared" ref="C215:C222" si="9">C214-25</f>
         <v>475</v>
       </c>
       <c r="D215" s="9"/>
@@ -4214,7 +4215,7 @@
         <v>113</v>
       </c>
       <c r="C216" s="18">
-        <f>C215-25</f>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="D216" s="9"/>
@@ -4228,7 +4229,7 @@
         <v>113</v>
       </c>
       <c r="C217" s="18">
-        <f>C216-25</f>
+        <f t="shared" si="9"/>
         <v>425</v>
       </c>
       <c r="D217" s="9"/>
@@ -4242,7 +4243,7 @@
         <v>113</v>
       </c>
       <c r="C218" s="18">
-        <f>C217-25</f>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="D218" s="9"/>
@@ -4256,7 +4257,7 @@
         <v>113</v>
       </c>
       <c r="C219" s="18">
-        <f>C218-25</f>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="D219" s="9"/>
@@ -4270,7 +4271,7 @@
         <v>113</v>
       </c>
       <c r="C220" s="18">
-        <f>C219-25</f>
+        <f t="shared" si="9"/>
         <v>350</v>
       </c>
       <c r="D220" s="9"/>
@@ -4284,7 +4285,7 @@
         <v>113</v>
       </c>
       <c r="C221" s="18">
-        <f>C220-25</f>
+        <f t="shared" si="9"/>
         <v>325</v>
       </c>
       <c r="D221" s="9"/>
@@ -4298,7 +4299,7 @@
         <v>113</v>
       </c>
       <c r="C222" s="18">
-        <f>C221-25</f>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="D222" s="9"/>
@@ -4383,7 +4384,7 @@
         <v>425</v>
       </c>
       <c r="D228" s="9" t="str">
-        <f>CONCATENATE("0",C228,"-01-01")</f>
+        <f t="shared" ref="D228:D244" si="10">CONCATENATE("0",C228,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
       <c r="F228" s="3"/>
@@ -4399,7 +4400,7 @@
         <v>400</v>
       </c>
       <c r="D229" s="9" t="str">
-        <f>CONCATENATE("0",C229,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0400-01-01</v>
       </c>
       <c r="F229" s="3"/>
@@ -4415,7 +4416,7 @@
         <v>375</v>
       </c>
       <c r="D230" s="9" t="str">
-        <f>CONCATENATE("0",C230,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0375-01-01</v>
       </c>
       <c r="F230" s="3"/>
@@ -4431,7 +4432,7 @@
         <v>47</v>
       </c>
       <c r="D231" s="9" t="str">
-        <f>CONCATENATE("0",C231,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0425-01-01</v>
       </c>
       <c r="F231" s="3"/>
@@ -4447,7 +4448,7 @@
         <v>49</v>
       </c>
       <c r="D232" s="9" t="str">
-        <f>CONCATENATE("0",C232,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0400-01-01</v>
       </c>
       <c r="F232" s="3"/>
@@ -4463,7 +4464,7 @@
         <v>50</v>
       </c>
       <c r="D233" s="9" t="str">
-        <f>CONCATENATE("0",C233,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0375-01-01</v>
       </c>
       <c r="F233" s="3"/>
@@ -4479,7 +4480,7 @@
         <v>44</v>
       </c>
       <c r="D234" s="9" t="str">
-        <f>CONCATENATE("0",C234,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0500-01-01</v>
       </c>
       <c r="F234" s="3"/>
@@ -4495,7 +4496,7 @@
         <v>45</v>
       </c>
       <c r="D235" s="9" t="str">
-        <f>CONCATENATE("0",C235,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0475-01-01</v>
       </c>
       <c r="F235" s="3"/>
@@ -4511,7 +4512,7 @@
         <v>46</v>
       </c>
       <c r="D236" s="9" t="str">
-        <f>CONCATENATE("0",C236,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0450-01-01</v>
       </c>
       <c r="F236" s="3"/>
@@ -4527,7 +4528,7 @@
         <v>47</v>
       </c>
       <c r="D237" s="9" t="str">
-        <f>CONCATENATE("0",C237,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0425-01-01</v>
       </c>
       <c r="F237" s="3"/>
@@ -4543,7 +4544,7 @@
         <v>49</v>
       </c>
       <c r="D238" s="9" t="str">
-        <f>CONCATENATE("0",C238,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0400-01-01</v>
       </c>
       <c r="F238" s="3"/>
@@ -4559,7 +4560,7 @@
         <v>46</v>
       </c>
       <c r="D239" s="9" t="str">
-        <f>CONCATENATE("0",C239,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0450-01-01</v>
       </c>
       <c r="F239" s="3"/>
@@ -4575,7 +4576,7 @@
         <v>47</v>
       </c>
       <c r="D240" s="9" t="str">
-        <f>CONCATENATE("0",C240,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0425-01-01</v>
       </c>
       <c r="F240" s="3"/>
@@ -4591,7 +4592,7 @@
         <v>49</v>
       </c>
       <c r="D241" s="9" t="str">
-        <f>CONCATENATE("0",C241,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0400-01-01</v>
       </c>
       <c r="F241" s="3"/>
@@ -4607,7 +4608,7 @@
         <v>450</v>
       </c>
       <c r="D242" s="9" t="str">
-        <f>CONCATENATE("0",C242,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0450-01-01</v>
       </c>
       <c r="F242" s="3"/>
@@ -4623,7 +4624,7 @@
         <v>425</v>
       </c>
       <c r="D243" s="9" t="str">
-        <f>CONCATENATE("0",C243,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0425-01-01</v>
       </c>
       <c r="F243" s="3"/>
@@ -4639,7 +4640,7 @@
         <v>400</v>
       </c>
       <c r="D244" s="9" t="str">
-        <f>CONCATENATE("0",C244,"-01-01")</f>
+        <f t="shared" si="10"/>
         <v>0400-01-01</v>
       </c>
       <c r="F244" s="3"/>
@@ -4724,7 +4725,7 @@
         <v>44</v>
       </c>
       <c r="D250" s="9" t="str">
-        <f>CONCATENATE("0",C250,"-01-01")</f>
+        <f t="shared" ref="D250:D257" si="11">CONCATENATE("0",C250,"-01-01")</f>
         <v>0500-01-01</v>
       </c>
       <c r="F250" s="3"/>
@@ -4740,7 +4741,7 @@
         <v>45</v>
       </c>
       <c r="D251" s="9" t="str">
-        <f>CONCATENATE("0",C251,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0475-01-01</v>
       </c>
       <c r="F251" s="3"/>
@@ -4756,7 +4757,7 @@
         <v>46</v>
       </c>
       <c r="D252" s="9" t="str">
-        <f>CONCATENATE("0",C252,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0450-01-01</v>
       </c>
       <c r="F252" s="3"/>
@@ -4772,7 +4773,7 @@
         <v>47</v>
       </c>
       <c r="D253" s="9" t="str">
-        <f>CONCATENATE("0",C253,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0425-01-01</v>
       </c>
       <c r="F253" s="3"/>
@@ -4788,7 +4789,7 @@
         <v>49</v>
       </c>
       <c r="D254" s="9" t="str">
-        <f>CONCATENATE("0",C254,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0400-01-01</v>
       </c>
       <c r="F254" s="3"/>
@@ -4804,7 +4805,7 @@
         <v>475</v>
       </c>
       <c r="D255" s="9" t="str">
-        <f>CONCATENATE("0",C255,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0475-01-01</v>
       </c>
       <c r="F255" s="3"/>
@@ -4820,7 +4821,7 @@
         <v>450</v>
       </c>
       <c r="D256" s="9" t="str">
-        <f>CONCATENATE("0",C256,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0450-01-01</v>
       </c>
       <c r="F256" s="3"/>
@@ -4836,7 +4837,7 @@
         <v>425</v>
       </c>
       <c r="D257" s="9" t="str">
-        <f>CONCATENATE("0",C257,"-01-01")</f>
+        <f t="shared" si="11"/>
         <v>0425-01-01</v>
       </c>
       <c r="F257" s="3"/>
@@ -5006,7 +5007,7 @@
         <v>425</v>
       </c>
       <c r="D269" s="9" t="str">
-        <f>CONCATENATE("0",C269,"-01-01")</f>
+        <f t="shared" ref="D269:D304" si="12">CONCATENATE("0",C269,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
       <c r="F269" s="3"/>
@@ -5022,7 +5023,7 @@
         <v>400</v>
       </c>
       <c r="D270" s="9" t="str">
-        <f>CONCATENATE("0",C270,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="F270" s="3"/>
@@ -5038,7 +5039,7 @@
         <v>375</v>
       </c>
       <c r="D271" s="9" t="str">
-        <f>CONCATENATE("0",C271,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0375-01-01</v>
       </c>
       <c r="F271" s="3"/>
@@ -5054,7 +5055,7 @@
         <v>44</v>
       </c>
       <c r="D272" s="9" t="str">
-        <f>CONCATENATE("0",C272,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0500-01-01</v>
       </c>
       <c r="F272" s="3"/>
@@ -5070,7 +5071,7 @@
         <v>45</v>
       </c>
       <c r="D273" s="9" t="str">
-        <f>CONCATENATE("0",C273,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0475-01-01</v>
       </c>
       <c r="F273" s="3"/>
@@ -5086,7 +5087,7 @@
         <v>46</v>
       </c>
       <c r="D274" s="9" t="str">
-        <f>CONCATENATE("0",C274,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0450-01-01</v>
       </c>
       <c r="E274" s="5"/>
@@ -5102,7 +5103,7 @@
         <v>47</v>
       </c>
       <c r="D275" s="9" t="str">
-        <f>CONCATENATE("0",C275,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E275" s="5"/>
@@ -5118,7 +5119,7 @@
         <v>49</v>
       </c>
       <c r="D276" s="9" t="str">
-        <f>CONCATENATE("0",C276,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E276" s="5"/>
@@ -5134,7 +5135,7 @@
         <v>425</v>
       </c>
       <c r="D277" s="9" t="str">
-        <f>CONCATENATE("0",C277,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E277" s="5"/>
@@ -5150,7 +5151,7 @@
         <v>400</v>
       </c>
       <c r="D278" s="9" t="str">
-        <f>CONCATENATE("0",C278,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E278" s="5"/>
@@ -5166,7 +5167,7 @@
         <v>375</v>
       </c>
       <c r="D279" s="9" t="str">
-        <f>CONCATENATE("0",C279,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0375-01-01</v>
       </c>
       <c r="E279" s="5"/>
@@ -5182,7 +5183,7 @@
         <v>47</v>
       </c>
       <c r="D280" s="9" t="str">
-        <f>CONCATENATE("0",C280,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E280" s="5"/>
@@ -5198,7 +5199,7 @@
         <v>49</v>
       </c>
       <c r="D281" s="9" t="str">
-        <f>CONCATENATE("0",C281,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E281" s="5"/>
@@ -5214,7 +5215,7 @@
         <v>44</v>
       </c>
       <c r="D282" s="9" t="str">
-        <f>CONCATENATE("0",C282,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0500-01-01</v>
       </c>
       <c r="E282" s="5"/>
@@ -5230,7 +5231,7 @@
         <v>45</v>
       </c>
       <c r="D283" s="9" t="str">
-        <f>CONCATENATE("0",C283,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0475-01-01</v>
       </c>
       <c r="E283" s="5"/>
@@ -5246,7 +5247,7 @@
         <v>46</v>
       </c>
       <c r="D284" s="9" t="str">
-        <f>CONCATENATE("0",C284,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0450-01-01</v>
       </c>
       <c r="E284" s="5"/>
@@ -5262,7 +5263,7 @@
         <v>47</v>
       </c>
       <c r="D285" s="9" t="str">
-        <f>CONCATENATE("0",C285,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E285" s="5"/>
@@ -5278,7 +5279,7 @@
         <v>49</v>
       </c>
       <c r="D286" s="9" t="str">
-        <f>CONCATENATE("0",C286,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E286" s="5"/>
@@ -5294,7 +5295,7 @@
         <v>47</v>
       </c>
       <c r="D287" s="9" t="str">
-        <f>CONCATENATE("0",C287,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E287" s="5"/>
@@ -5310,7 +5311,7 @@
         <v>49</v>
       </c>
       <c r="D288" s="9" t="str">
-        <f>CONCATENATE("0",C288,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E288" s="5"/>
@@ -5326,7 +5327,7 @@
         <v>50</v>
       </c>
       <c r="D289" s="9" t="str">
-        <f>CONCATENATE("0",C289,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0375-01-01</v>
       </c>
       <c r="E289" s="5"/>
@@ -5342,7 +5343,7 @@
         <v>44</v>
       </c>
       <c r="D290" s="9" t="str">
-        <f>CONCATENATE("0",C290,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0500-01-01</v>
       </c>
       <c r="E290" s="5"/>
@@ -5358,7 +5359,7 @@
         <v>45</v>
       </c>
       <c r="D291" s="9" t="str">
-        <f>CONCATENATE("0",C291,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0475-01-01</v>
       </c>
       <c r="E291" s="5"/>
@@ -5374,7 +5375,7 @@
         <v>46</v>
       </c>
       <c r="D292" s="9" t="str">
-        <f>CONCATENATE("0",C292,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0450-01-01</v>
       </c>
       <c r="E292" s="5"/>
@@ -5390,7 +5391,7 @@
         <v>47</v>
       </c>
       <c r="D293" s="9" t="str">
-        <f>CONCATENATE("0",C293,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E293" s="5"/>
@@ -5406,7 +5407,7 @@
         <v>49</v>
       </c>
       <c r="D294" s="9" t="str">
-        <f>CONCATENATE("0",C294,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E294" s="5"/>
@@ -5422,7 +5423,7 @@
         <v>425</v>
       </c>
       <c r="D295" s="9" t="str">
-        <f>CONCATENATE("0",C295,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E295" s="5"/>
@@ -5438,7 +5439,7 @@
         <v>400</v>
       </c>
       <c r="D296" s="9" t="str">
-        <f>CONCATENATE("0",C296,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E296" s="5"/>
@@ -5454,7 +5455,7 @@
         <v>375</v>
       </c>
       <c r="D297" s="9" t="str">
-        <f>CONCATENATE("0",C297,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0375-01-01</v>
       </c>
       <c r="E297" s="5"/>
@@ -5470,7 +5471,7 @@
         <v>45</v>
       </c>
       <c r="D298" s="9" t="str">
-        <f>CONCATENATE("0",C298,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0475-01-01</v>
       </c>
       <c r="E298" s="5"/>
@@ -5486,7 +5487,7 @@
         <v>46</v>
       </c>
       <c r="D299" s="9" t="str">
-        <f>CONCATENATE("0",C299,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0450-01-01</v>
       </c>
       <c r="E299" s="5"/>
@@ -5502,7 +5503,7 @@
         <v>47</v>
       </c>
       <c r="D300" s="9" t="str">
-        <f>CONCATENATE("0",C300,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E300" s="5"/>
@@ -5518,7 +5519,7 @@
         <v>47</v>
       </c>
       <c r="D301" s="9" t="str">
-        <f>CONCATENATE("0",C301,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E301" s="5"/>
@@ -5534,7 +5535,7 @@
         <v>49</v>
       </c>
       <c r="D302" s="9" t="str">
-        <f>CONCATENATE("0",C302,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0400-01-01</v>
       </c>
       <c r="E302" s="5"/>
@@ -5550,7 +5551,7 @@
         <v>46</v>
       </c>
       <c r="D303" s="9" t="str">
-        <f>CONCATENATE("0",C303,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0450-01-01</v>
       </c>
       <c r="E303" s="5"/>
@@ -5566,7 +5567,7 @@
         <v>47</v>
       </c>
       <c r="D304" s="9" t="str">
-        <f>CONCATENATE("0",C304,"-01-01")</f>
+        <f t="shared" si="12"/>
         <v>0425-01-01</v>
       </c>
       <c r="E304" s="5"/>
@@ -5593,7 +5594,7 @@
         <v>119</v>
       </c>
       <c r="C306" s="15">
-        <f>C305-25</f>
+        <f t="shared" ref="C306:C313" si="13">C305-25</f>
         <v>575</v>
       </c>
       <c r="D306" s="9"/>
@@ -5607,7 +5608,7 @@
         <v>119</v>
       </c>
       <c r="C307" s="15">
-        <f>C306-25</f>
+        <f t="shared" si="13"/>
         <v>550</v>
       </c>
       <c r="D307" s="9"/>
@@ -5621,7 +5622,7 @@
         <v>119</v>
       </c>
       <c r="C308" s="15">
-        <f>C307-25</f>
+        <f t="shared" si="13"/>
         <v>525</v>
       </c>
       <c r="D308" s="9"/>
@@ -5635,7 +5636,7 @@
         <v>119</v>
       </c>
       <c r="C309" s="15">
-        <f>C308-25</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D309" s="9"/>
@@ -5649,7 +5650,7 @@
         <v>119</v>
       </c>
       <c r="C310" s="15">
-        <f>C309-25</f>
+        <f t="shared" si="13"/>
         <v>475</v>
       </c>
       <c r="D310" s="9"/>
@@ -5663,7 +5664,7 @@
         <v>119</v>
       </c>
       <c r="C311" s="15">
-        <f>C310-25</f>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="D311" s="9"/>
@@ -5677,7 +5678,7 @@
         <v>119</v>
       </c>
       <c r="C312" s="15">
-        <f>C311-25</f>
+        <f t="shared" si="13"/>
         <v>425</v>
       </c>
       <c r="D312" s="9"/>
@@ -5691,7 +5692,7 @@
         <v>119</v>
       </c>
       <c r="C313" s="15">
-        <f>C312-25</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D313" s="9"/>
@@ -5718,7 +5719,7 @@
         <v>120</v>
       </c>
       <c r="C315" s="15">
-        <f>C314-25</f>
+        <f t="shared" ref="C315:C322" si="14">C314-25</f>
         <v>575</v>
       </c>
       <c r="D315" s="9"/>
@@ -5732,7 +5733,7 @@
         <v>120</v>
       </c>
       <c r="C316" s="15">
-        <f>C315-25</f>
+        <f t="shared" si="14"/>
         <v>550</v>
       </c>
       <c r="D316" s="9"/>
@@ -5746,7 +5747,7 @@
         <v>120</v>
       </c>
       <c r="C317" s="15">
-        <f>C316-25</f>
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
       <c r="D317" s="9"/>
@@ -5760,7 +5761,7 @@
         <v>120</v>
       </c>
       <c r="C318" s="15">
-        <f>C317-25</f>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="D318" s="9"/>
@@ -5774,7 +5775,7 @@
         <v>120</v>
       </c>
       <c r="C319" s="15">
-        <f>C318-25</f>
+        <f t="shared" si="14"/>
         <v>475</v>
       </c>
       <c r="D319" s="9"/>
@@ -5788,7 +5789,7 @@
         <v>120</v>
       </c>
       <c r="C320" s="15">
-        <f>C319-25</f>
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
       <c r="D320" s="9"/>
@@ -5802,7 +5803,7 @@
         <v>120</v>
       </c>
       <c r="C321" s="15">
-        <f>C320-25</f>
+        <f t="shared" si="14"/>
         <v>425</v>
       </c>
       <c r="D321" s="9"/>
@@ -5816,7 +5817,7 @@
         <v>120</v>
       </c>
       <c r="C322" s="15">
-        <f>C321-25</f>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D322" s="9"/>
@@ -5848,7 +5849,7 @@
         <v>44</v>
       </c>
       <c r="D324" s="9" t="str">
-        <f>CONCATENATE("0",C324,"-01-01")</f>
+        <f t="shared" ref="D324:D346" si="15">CONCATENATE("0",C324,"-01-01")</f>
         <v>0500-01-01</v>
       </c>
       <c r="E324" s="5"/>
@@ -5864,7 +5865,7 @@
         <v>45</v>
       </c>
       <c r="D325" s="9" t="str">
-        <f>CONCATENATE("0",C325,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0475-01-01</v>
       </c>
       <c r="E325" s="5"/>
@@ -5880,7 +5881,7 @@
         <v>46</v>
       </c>
       <c r="D326" s="9" t="str">
-        <f>CONCATENATE("0",C326,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0450-01-01</v>
       </c>
       <c r="E326" s="5"/>
@@ -5896,7 +5897,7 @@
         <v>47</v>
       </c>
       <c r="D327" s="9" t="str">
-        <f>CONCATENATE("0",C327,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E327" s="5"/>
@@ -5912,7 +5913,7 @@
         <v>49</v>
       </c>
       <c r="D328" s="9" t="str">
-        <f>CONCATENATE("0",C328,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0400-01-01</v>
       </c>
       <c r="E328" s="5"/>
@@ -5928,7 +5929,7 @@
         <v>47</v>
       </c>
       <c r="D329" s="9" t="str">
-        <f>CONCATENATE("0",C329,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E329" s="5"/>
@@ -5944,7 +5945,7 @@
         <v>49</v>
       </c>
       <c r="D330" s="9" t="str">
-        <f>CONCATENATE("0",C330,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0400-01-01</v>
       </c>
       <c r="E330" s="5"/>
@@ -5960,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="D331" s="9" t="str">
-        <f>CONCATENATE("0",C331,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0500-01-01</v>
       </c>
       <c r="E331" s="5"/>
@@ -5976,7 +5977,7 @@
         <v>45</v>
       </c>
       <c r="D332" s="9" t="str">
-        <f>CONCATENATE("0",C332,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0475-01-01</v>
       </c>
       <c r="E332" s="5"/>
@@ -5992,7 +5993,7 @@
         <v>46</v>
       </c>
       <c r="D333" s="9" t="str">
-        <f>CONCATENATE("0",C333,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0450-01-01</v>
       </c>
       <c r="E333" s="5"/>
@@ -6008,7 +6009,7 @@
         <v>47</v>
       </c>
       <c r="D334" s="9" t="str">
-        <f>CONCATENATE("0",C334,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E334" s="5"/>
@@ -6024,7 +6025,7 @@
         <v>49</v>
       </c>
       <c r="D335" s="9" t="str">
-        <f>CONCATENATE("0",C335,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0400-01-01</v>
       </c>
       <c r="E335" s="5"/>
@@ -6040,7 +6041,7 @@
         <v>48</v>
       </c>
       <c r="D336" s="9" t="str">
-        <f>CONCATENATE("0",C336,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0525-01-01</v>
       </c>
       <c r="E336" s="5"/>
@@ -6056,7 +6057,7 @@
         <v>44</v>
       </c>
       <c r="D337" s="9" t="str">
-        <f>CONCATENATE("0",C337,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0500-01-01</v>
       </c>
       <c r="E337" s="5"/>
@@ -6072,7 +6073,7 @@
         <v>45</v>
       </c>
       <c r="D338" s="9" t="str">
-        <f>CONCATENATE("0",C338,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0475-01-01</v>
       </c>
       <c r="E338" s="5"/>
@@ -6088,7 +6089,7 @@
         <v>46</v>
       </c>
       <c r="D339" s="9" t="str">
-        <f>CONCATENATE("0",C339,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0450-01-01</v>
       </c>
       <c r="E339" s="5"/>
@@ -6104,7 +6105,7 @@
         <v>47</v>
       </c>
       <c r="D340" s="9" t="str">
-        <f>CONCATENATE("0",C340,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E340" s="5"/>
@@ -6120,7 +6121,7 @@
         <v>46</v>
       </c>
       <c r="D341" s="9" t="str">
-        <f>CONCATENATE("0",C341,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0450-01-01</v>
       </c>
       <c r="E341" s="5"/>
@@ -6136,7 +6137,7 @@
         <v>47</v>
       </c>
       <c r="D342" s="9" t="str">
-        <f>CONCATENATE("0",C342,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E342" s="5"/>
@@ -6152,7 +6153,7 @@
         <v>49</v>
       </c>
       <c r="D343" s="9" t="str">
-        <f>CONCATENATE("0",C343,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0400-01-01</v>
       </c>
       <c r="E343" s="5"/>
@@ -6168,7 +6169,7 @@
         <v>450</v>
       </c>
       <c r="D344" s="9" t="str">
-        <f>CONCATENATE("0",C344,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0450-01-01</v>
       </c>
       <c r="E344" s="5"/>
@@ -6184,7 +6185,7 @@
         <v>425</v>
       </c>
       <c r="D345" s="9" t="str">
-        <f>CONCATENATE("0",C345,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0425-01-01</v>
       </c>
       <c r="E345" s="5"/>
@@ -6200,7 +6201,7 @@
         <v>400</v>
       </c>
       <c r="D346" s="9" t="str">
-        <f>CONCATENATE("0",C346,"-01-01")</f>
+        <f t="shared" si="15"/>
         <v>0400-01-01</v>
       </c>
       <c r="E346" s="5"/>
@@ -6288,7 +6289,7 @@
         <v>123</v>
       </c>
       <c r="C352" s="15">
-        <f>C351-25</f>
+        <f t="shared" ref="C352:C359" si="16">C351-25</f>
         <v>575</v>
       </c>
       <c r="D352" s="9"/>
@@ -6302,7 +6303,7 @@
         <v>123</v>
       </c>
       <c r="C353" s="15">
-        <f>C352-25</f>
+        <f t="shared" si="16"/>
         <v>550</v>
       </c>
       <c r="D353" s="9"/>
@@ -6316,7 +6317,7 @@
         <v>123</v>
       </c>
       <c r="C354" s="15">
-        <f>C353-25</f>
+        <f t="shared" si="16"/>
         <v>525</v>
       </c>
       <c r="D354" s="9"/>
@@ -6330,7 +6331,7 @@
         <v>123</v>
       </c>
       <c r="C355" s="15">
-        <f>C354-25</f>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="D355" s="9"/>
@@ -6344,7 +6345,7 @@
         <v>123</v>
       </c>
       <c r="C356" s="15">
-        <f>C355-25</f>
+        <f t="shared" si="16"/>
         <v>475</v>
       </c>
       <c r="D356" s="9"/>
@@ -6358,7 +6359,7 @@
         <v>123</v>
       </c>
       <c r="C357" s="15">
-        <f>C356-25</f>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
       <c r="D357" s="9"/>
@@ -6372,7 +6373,7 @@
         <v>123</v>
       </c>
       <c r="C358" s="15">
-        <f>C357-25</f>
+        <f t="shared" si="16"/>
         <v>425</v>
       </c>
       <c r="D358" s="9"/>
@@ -6386,7 +6387,7 @@
         <v>123</v>
       </c>
       <c r="C359" s="15">
-        <f>C358-25</f>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="D359" s="9"/>
@@ -6402,7 +6403,7 @@
         <v>44</v>
       </c>
       <c r="D360" s="9" t="str">
-        <f>CONCATENATE("0",C360,"-01-01")</f>
+        <f t="shared" ref="D360:D372" si="17">CONCATENATE("0",C360,"-01-01")</f>
         <v>0500-01-01</v>
       </c>
       <c r="E360" s="5"/>
@@ -6418,7 +6419,7 @@
         <v>45</v>
       </c>
       <c r="D361" s="9" t="str">
-        <f>CONCATENATE("0",C361,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0475-01-01</v>
       </c>
       <c r="E361" s="5"/>
@@ -6434,7 +6435,7 @@
         <v>46</v>
       </c>
       <c r="D362" s="9" t="str">
-        <f>CONCATENATE("0",C362,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0450-01-01</v>
       </c>
       <c r="E362" s="5"/>
@@ -6450,7 +6451,7 @@
         <v>47</v>
       </c>
       <c r="D363" s="9" t="str">
-        <f>CONCATENATE("0",C363,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0425-01-01</v>
       </c>
       <c r="E363" s="5"/>
@@ -6466,7 +6467,7 @@
         <v>49</v>
       </c>
       <c r="D364" s="9" t="str">
-        <f>CONCATENATE("0",C364,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0400-01-01</v>
       </c>
       <c r="E364" s="5"/>
@@ -6482,7 +6483,7 @@
         <v>47</v>
       </c>
       <c r="D365" s="9" t="str">
-        <f>CONCATENATE("0",C365,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0425-01-01</v>
       </c>
       <c r="E365" s="5"/>
@@ -6498,7 +6499,7 @@
         <v>49</v>
       </c>
       <c r="D366" s="9" t="str">
-        <f>CONCATENATE("0",C366,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0400-01-01</v>
       </c>
       <c r="E366" s="5"/>
@@ -6514,7 +6515,7 @@
         <v>50</v>
       </c>
       <c r="D367" s="9" t="str">
-        <f>CONCATENATE("0",C367,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0375-01-01</v>
       </c>
       <c r="E367" s="5"/>
@@ -6530,7 +6531,7 @@
         <v>49</v>
       </c>
       <c r="D368" s="9" t="str">
-        <f>CONCATENATE("0",C368,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0400-01-01</v>
       </c>
       <c r="E368" s="5"/>
@@ -6546,7 +6547,7 @@
         <v>50</v>
       </c>
       <c r="D369" s="9" t="str">
-        <f>CONCATENATE("0",C369,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0375-01-01</v>
       </c>
       <c r="E369" s="5"/>
@@ -6562,7 +6563,7 @@
         <v>425</v>
       </c>
       <c r="D370" s="9" t="str">
-        <f>CONCATENATE("0",C370,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0425-01-01</v>
       </c>
       <c r="E370" s="5"/>
@@ -6578,7 +6579,7 @@
         <v>400</v>
       </c>
       <c r="D371" s="9" t="str">
-        <f>CONCATENATE("0",C371,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0400-01-01</v>
       </c>
       <c r="E371" s="5"/>
@@ -6594,7 +6595,7 @@
         <v>375</v>
       </c>
       <c r="D372" s="9" t="str">
-        <f>CONCATENATE("0",C372,"-01-01")</f>
+        <f t="shared" si="17"/>
         <v>0375-01-01</v>
       </c>
       <c r="E372" s="5"/>
@@ -6692,7 +6693,7 @@
         <v>425</v>
       </c>
       <c r="D379" s="9" t="str">
-        <f>CONCATENATE("0",C379,"-01-01")</f>
+        <f t="shared" ref="D379:D389" si="18">CONCATENATE("0",C379,"-01-01")</f>
         <v>0425-01-01</v>
       </c>
       <c r="E379" s="5"/>
@@ -6708,7 +6709,7 @@
         <v>400</v>
       </c>
       <c r="D380" s="9" t="str">
-        <f>CONCATENATE("0",C380,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0400-01-01</v>
       </c>
       <c r="E380" s="5"/>
@@ -6724,7 +6725,7 @@
         <v>375</v>
       </c>
       <c r="D381" s="9" t="str">
-        <f>CONCATENATE("0",C381,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0375-01-01</v>
       </c>
       <c r="E381" s="5"/>
@@ -6740,7 +6741,7 @@
         <v>46</v>
       </c>
       <c r="D382" s="9" t="str">
-        <f>CONCATENATE("0",C382,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0450-01-01</v>
       </c>
       <c r="E382" s="5"/>
@@ -6756,7 +6757,7 @@
         <v>47</v>
       </c>
       <c r="D383" s="9" t="str">
-        <f>CONCATENATE("0",C383,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0425-01-01</v>
       </c>
       <c r="E383" s="5"/>
@@ -6772,7 +6773,7 @@
         <v>49</v>
       </c>
       <c r="D384" s="9" t="str">
-        <f>CONCATENATE("0",C384,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0400-01-01</v>
       </c>
       <c r="E384" s="5"/>
@@ -6788,7 +6789,7 @@
         <v>44</v>
       </c>
       <c r="D385" s="9" t="str">
-        <f>CONCATENATE("0",C385,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0500-01-01</v>
       </c>
       <c r="E385" s="5"/>
@@ -6804,7 +6805,7 @@
         <v>45</v>
       </c>
       <c r="D386" s="9" t="str">
-        <f>CONCATENATE("0",C386,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0475-01-01</v>
       </c>
       <c r="E386" s="5"/>
@@ -6820,7 +6821,7 @@
         <v>46</v>
       </c>
       <c r="D387" s="9" t="str">
-        <f>CONCATENATE("0",C387,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0450-01-01</v>
       </c>
       <c r="E387" s="5"/>
@@ -6836,7 +6837,7 @@
         <v>47</v>
       </c>
       <c r="D388" s="9" t="str">
-        <f>CONCATENATE("0",C388,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0425-01-01</v>
       </c>
       <c r="E388" s="5"/>
@@ -6852,7 +6853,7 @@
         <v>49</v>
       </c>
       <c r="D389" s="9" t="str">
-        <f>CONCATENATE("0",C389,"-01-01")</f>
+        <f t="shared" si="18"/>
         <v>0400-01-01</v>
       </c>
       <c r="E389" s="5"/>
@@ -6865,184 +6866,171 @@
         <f>VLOOKUP(A390,Sheet2!$A$1:$B$141,2,FALSE)</f>
         <v>126</v>
       </c>
-      <c r="C390" s="15"/>
+      <c r="C390" s="15">
+        <v>500</v>
+      </c>
       <c r="D390" s="9"/>
-      <c r="E390" s="2" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="391" spans="1:5" ht="15" thickBot="1">
       <c r="A391" s="15" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B391" s="9">
-        <v>24</v>
-      </c>
-      <c r="C391" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D391" s="9" t="str">
-        <f>CONCATENATE("0",C391,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E391" s="5"/>
+        <f>VLOOKUP(A391,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C391" s="15">
+        <v>475</v>
+      </c>
+      <c r="D391" s="9"/>
     </row>
     <row r="392" spans="1:5" ht="15" thickBot="1">
       <c r="A392" s="15" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B392" s="9">
-        <v>24</v>
-      </c>
-      <c r="C392" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D392" s="9" t="str">
-        <f>CONCATENATE("0",C392,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E392" s="5"/>
+        <f>VLOOKUP(A392,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C392" s="15">
+        <v>450</v>
+      </c>
+      <c r="D392" s="9"/>
     </row>
     <row r="393" spans="1:5" ht="15" thickBot="1">
       <c r="A393" s="15" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B393" s="9">
-        <v>24</v>
-      </c>
-      <c r="C393" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D393" s="9" t="str">
-        <f>CONCATENATE("0",C393,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E393" s="5"/>
+        <f>VLOOKUP(A393,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C393" s="15">
+        <v>425</v>
+      </c>
+      <c r="D393" s="9"/>
     </row>
     <row r="394" spans="1:5" ht="15" thickBot="1">
       <c r="A394" s="15" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="B394" s="9">
-        <v>25</v>
-      </c>
-      <c r="C394" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D394" s="9" t="str">
-        <f>CONCATENATE("0",C394,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E394" s="5"/>
+        <f>VLOOKUP(A394,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C394" s="15">
+        <v>400</v>
+      </c>
+      <c r="D394" s="9"/>
     </row>
     <row r="395" spans="1:5" ht="15" thickBot="1">
       <c r="A395" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B395" s="9">
-        <v>25</v>
-      </c>
-      <c r="C395" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C395" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="D395" s="9" t="str">
-        <f>CONCATENATE("0",C395,"-01-01")</f>
-        <v>0400-01-01</v>
+        <f t="shared" ref="D395:D400" si="19">CONCATENATE("0",C395,"-01-01")</f>
+        <v>0425-01-01</v>
       </c>
       <c r="E395" s="5"/>
     </row>
     <row r="396" spans="1:5" ht="15" thickBot="1">
       <c r="A396" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B396" s="9">
-        <v>25</v>
-      </c>
-      <c r="C396" s="21" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="C396" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="D396" s="9" t="str">
-        <f>CONCATENATE("0",C396,"-01-01")</f>
-        <v>0375-01-01</v>
+        <f t="shared" si="19"/>
+        <v>0400-01-01</v>
       </c>
       <c r="E396" s="5"/>
     </row>
     <row r="397" spans="1:5" ht="15" thickBot="1">
       <c r="A397" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="9">
+        <v>24</v>
+      </c>
+      <c r="C397" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D397" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="1:5" ht="15" thickBot="1">
+      <c r="A398" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B398" s="9">
+        <v>25</v>
+      </c>
+      <c r="C398" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D398" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399" spans="1:5" ht="15" thickBot="1">
+      <c r="A399" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B399" s="9">
+        <v>25</v>
+      </c>
+      <c r="C399" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D399" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400" spans="1:5" ht="15" thickBot="1">
+      <c r="A400" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B400" s="9">
+        <v>25</v>
+      </c>
+      <c r="C400" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D400" s="9" t="str">
+        <f t="shared" si="19"/>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401" spans="1:5" ht="15" thickBot="1">
+      <c r="A401" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B397" s="9">
-        <f>VLOOKUP(A397,Sheet2!$A$1:$B$141,2,FALSE)</f>
+      <c r="B401" s="9">
+        <f>VLOOKUP(A401,Sheet2!$A$1:$B$141,2,FALSE)</f>
         <v>127</v>
       </c>
-      <c r="C397" s="16">
+      <c r="C401" s="16">
         <v>550</v>
       </c>
-      <c r="D397" s="9"/>
-    </row>
-    <row r="398" spans="1:5" ht="15" thickBot="1">
-      <c r="A398" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B398" s="13">
-        <v>81</v>
-      </c>
-      <c r="C398" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D398" s="9" t="str">
-        <f>CONCATENATE("0",C398,"-01-01")</f>
-        <v>0500-01-01</v>
-      </c>
-      <c r="E398" s="5"/>
-    </row>
-    <row r="399" spans="1:5" ht="15" thickBot="1">
-      <c r="A399" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B399" s="13">
-        <v>81</v>
-      </c>
-      <c r="C399" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D399" s="9" t="str">
-        <f>CONCATENATE("0",C399,"-01-01")</f>
-        <v>0475-01-01</v>
-      </c>
-      <c r="E399" s="5"/>
-    </row>
-    <row r="400" spans="1:5" ht="15" thickBot="1">
-      <c r="A400" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B400" s="13">
-        <v>81</v>
-      </c>
-      <c r="C400" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D400" s="9" t="str">
-        <f>CONCATENATE("0",C400,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="1:5" ht="15" thickBot="1">
-      <c r="A401" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B401" s="13">
-        <v>81</v>
-      </c>
-      <c r="C401" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D401" s="9" t="str">
-        <f>CONCATENATE("0",C401,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E401" s="5"/>
+      <c r="D401" s="9"/>
     </row>
     <row r="402" spans="1:5" ht="15" thickBot="1">
       <c r="A402" s="19" t="s">
@@ -7052,123 +7040,123 @@
         <v>81</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D402" s="9" t="str">
-        <f>CONCATENATE("0",C402,"-01-01")</f>
-        <v>0400-01-01</v>
+        <f t="shared" ref="D402:D417" si="20">CONCATENATE("0",C402,"-01-01")</f>
+        <v>0500-01-01</v>
       </c>
       <c r="E402" s="5"/>
     </row>
     <row r="403" spans="1:5" ht="15" thickBot="1">
-      <c r="A403" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B403" s="9">
-        <v>5</v>
+      <c r="A403" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B403" s="13">
+        <v>81</v>
       </c>
       <c r="C403" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D403" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0475-01-01</v>
+      </c>
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404" spans="1:5" ht="15" thickBot="1">
+      <c r="A404" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B404" s="13">
+        <v>81</v>
+      </c>
+      <c r="C404" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D403" s="9" t="str">
-        <f>CONCATENATE("0",C403,"-01-01")</f>
+      <c r="D404" s="9" t="str">
+        <f t="shared" si="20"/>
         <v>0450-01-01</v>
       </c>
-      <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="1:5" ht="15" thickBot="1">
-      <c r="A404" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B404" s="9">
-        <v>5</v>
-      </c>
-      <c r="C404" s="22" t="s">
+      <c r="E404" s="5"/>
+    </row>
+    <row r="405" spans="1:5" ht="15" thickBot="1">
+      <c r="A405" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B405" s="13">
+        <v>81</v>
+      </c>
+      <c r="C405" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D404" s="9" t="str">
-        <f>CONCATENATE("0",C404,"-01-01")</f>
+      <c r="D405" s="9" t="str">
+        <f t="shared" si="20"/>
         <v>0425-01-01</v>
-      </c>
-      <c r="E404" s="5"/>
-    </row>
-    <row r="405" spans="1:5" ht="15" thickBot="1">
-      <c r="A405" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B405" s="9">
-        <v>5</v>
-      </c>
-      <c r="C405" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D405" s="9" t="str">
-        <f>CONCATENATE("0",C405,"-01-01")</f>
-        <v>0400-01-01</v>
       </c>
       <c r="E405" s="5"/>
     </row>
     <row r="406" spans="1:5" ht="15" thickBot="1">
       <c r="A406" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B406" s="13">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D406" s="9" t="str">
-        <f>CONCATENATE("0",C406,"-01-01")</f>
-        <v>0500-01-01</v>
+        <f t="shared" si="20"/>
+        <v>0400-01-01</v>
       </c>
       <c r="E406" s="5"/>
     </row>
     <row r="407" spans="1:5" ht="15" thickBot="1">
-      <c r="A407" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B407" s="13">
-        <v>82</v>
+      <c r="A407" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" s="9">
+        <v>5</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D407" s="9" t="str">
-        <f>CONCATENATE("0",C407,"-01-01")</f>
-        <v>0475-01-01</v>
+        <f t="shared" si="20"/>
+        <v>0450-01-01</v>
       </c>
       <c r="E407" s="5"/>
     </row>
     <row r="408" spans="1:5" ht="15" thickBot="1">
-      <c r="A408" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B408" s="13">
-        <v>82</v>
+      <c r="A408" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="9">
+        <v>5</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D408" s="9" t="str">
-        <f>CONCATENATE("0",C408,"-01-01")</f>
-        <v>0450-01-01</v>
+        <f t="shared" si="20"/>
+        <v>0425-01-01</v>
       </c>
       <c r="E408" s="5"/>
     </row>
     <row r="409" spans="1:5" ht="15" thickBot="1">
-      <c r="A409" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B409" s="13">
-        <v>82</v>
+      <c r="A409" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" s="9">
+        <v>5</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D409" s="9" t="str">
-        <f>CONCATENATE("0",C409,"-01-01")</f>
-        <v>0425-01-01</v>
+        <f t="shared" si="20"/>
+        <v>0400-01-01</v>
       </c>
       <c r="E409" s="5"/>
     </row>
@@ -7180,116 +7168,125 @@
         <v>82</v>
       </c>
       <c r="C410" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D410" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0500-01-01</v>
+      </c>
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411" spans="1:5" ht="15" thickBot="1">
+      <c r="A411" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B411" s="13">
+        <v>82</v>
+      </c>
+      <c r="C411" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D411" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0475-01-01</v>
+      </c>
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412" spans="1:5" ht="15" thickBot="1">
+      <c r="A412" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B412" s="13">
+        <v>82</v>
+      </c>
+      <c r="C412" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D412" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" spans="1:5" ht="15" thickBot="1">
+      <c r="A413" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B413" s="13">
+        <v>82</v>
+      </c>
+      <c r="C413" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D413" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" spans="1:5" ht="15" thickBot="1">
+      <c r="A414" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B414" s="13">
+        <v>82</v>
+      </c>
+      <c r="C414" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D410" s="9" t="str">
-        <f>CONCATENATE("0",C410,"-01-01")</f>
+      <c r="D414" s="9" t="str">
+        <f t="shared" si="20"/>
         <v>0400-01-01</v>
       </c>
-      <c r="E410" s="5"/>
-    </row>
-    <row r="411" spans="1:5" ht="15" thickBot="1">
-      <c r="A411" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B411" s="9">
-        <v>26</v>
-      </c>
-      <c r="C411" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D411" s="9" t="str">
-        <f>CONCATENATE("0",C411,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E411" s="5"/>
-    </row>
-    <row r="412" spans="1:5" ht="15" thickBot="1">
-      <c r="A412" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B412" s="9">
-        <v>26</v>
-      </c>
-      <c r="C412" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D412" s="9" t="str">
-        <f>CONCATENATE("0",C412,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E412" s="5"/>
-    </row>
-    <row r="413" spans="1:5" ht="15" thickBot="1">
-      <c r="A413" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B413" s="9">
-        <v>26</v>
-      </c>
-      <c r="C413" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D413" s="9" t="str">
-        <f>CONCATENATE("0",C413,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E413" s="5"/>
-    </row>
-    <row r="414" spans="1:5" ht="15" thickBot="1">
-      <c r="A414" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B414" s="9">
-        <f>VLOOKUP(A414,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C414" s="15">
-        <v>700</v>
-      </c>
-      <c r="D414" s="9"/>
+      <c r="E414" s="5"/>
     </row>
     <row r="415" spans="1:5" ht="15" thickBot="1">
       <c r="A415" s="15" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="B415" s="9">
-        <f>VLOOKUP(A415,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C415" s="17">
-        <f>C414-25</f>
-        <v>675</v>
-      </c>
-      <c r="D415" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C415" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D415" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E415" s="5"/>
     </row>
     <row r="416" spans="1:5" ht="15" thickBot="1">
       <c r="A416" s="15" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="B416" s="9">
-        <f>VLOOKUP(A416,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C416" s="17">
-        <f>C415-25</f>
-        <v>650</v>
-      </c>
-      <c r="D416" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C416" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D416" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E416" s="5"/>
     </row>
     <row r="417" spans="1:5" ht="15" thickBot="1">
       <c r="A417" s="15" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="B417" s="9">
-        <f>VLOOKUP(A417,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="C417" s="17">
-        <f>C416-25</f>
-        <v>625</v>
-      </c>
-      <c r="D417" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C417" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D417" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E417" s="5"/>
     </row>
     <row r="418" spans="1:5" ht="15" thickBot="1">
       <c r="A418" s="15" t="s">
@@ -7299,64 +7296,64 @@
         <f>VLOOKUP(A418,Sheet2!$A$1:$B$141,2,FALSE)</f>
         <v>128</v>
       </c>
-      <c r="C418" s="17">
-        <f>C417-25</f>
-        <v>600</v>
+      <c r="C418" s="15">
+        <v>700</v>
       </c>
       <c r="D418" s="9"/>
     </row>
     <row r="419" spans="1:5" ht="15" thickBot="1">
       <c r="A419" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B419" s="9">
         <f>VLOOKUP(A419,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="C419" s="15">
-        <v>550</v>
+        <v>128</v>
+      </c>
+      <c r="C419" s="17">
+        <f>C418-25</f>
+        <v>675</v>
       </c>
       <c r="D419" s="9"/>
     </row>
     <row r="420" spans="1:5" ht="15" thickBot="1">
       <c r="A420" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B420" s="9">
         <f>VLOOKUP(A420,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="C420" s="15">
+        <v>128</v>
+      </c>
+      <c r="C420" s="17">
         <f>C419-25</f>
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="D420" s="9"/>
     </row>
     <row r="421" spans="1:5" ht="15" thickBot="1">
       <c r="A421" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B421" s="9">
         <f>VLOOKUP(A421,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="C421" s="15">
+        <v>128</v>
+      </c>
+      <c r="C421" s="17">
         <f>C420-25</f>
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="D421" s="9"/>
     </row>
     <row r="422" spans="1:5" ht="15" thickBot="1">
       <c r="A422" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B422" s="9">
         <f>VLOOKUP(A422,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="C422" s="15">
+        <v>128</v>
+      </c>
+      <c r="C422" s="17">
         <f>C421-25</f>
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="D422" s="9"/>
     </row>
@@ -7369,129 +7366,129 @@
         <v>129</v>
       </c>
       <c r="C423" s="15">
-        <f>C422-25</f>
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="D423" s="9"/>
     </row>
     <row r="424" spans="1:5" ht="15" thickBot="1">
-      <c r="A424" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B424" s="13">
-        <v>83</v>
-      </c>
-      <c r="C424" s="24">
-        <v>450</v>
-      </c>
-      <c r="D424" s="9" t="str">
-        <f>CONCATENATE("0",C424,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E424" s="5"/>
+      <c r="A424" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B424" s="9">
+        <f>VLOOKUP(A424,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C424" s="15">
+        <f>C423-25</f>
+        <v>525</v>
+      </c>
+      <c r="D424" s="9"/>
     </row>
     <row r="425" spans="1:5" ht="15" thickBot="1">
       <c r="A425" s="15" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B425" s="9">
-        <v>2</v>
-      </c>
-      <c r="C425" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D425" s="9" t="str">
-        <f>CONCATENATE("0",C425,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E425" s="5"/>
+        <f>VLOOKUP(A425,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C425" s="15">
+        <f>C424-25</f>
+        <v>500</v>
+      </c>
+      <c r="D425" s="9"/>
     </row>
     <row r="426" spans="1:5" ht="15" thickBot="1">
       <c r="A426" s="15" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B426" s="9">
-        <v>2</v>
-      </c>
-      <c r="C426" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D426" s="9" t="str">
-        <f>CONCATENATE("0",C426,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E426" s="5"/>
+        <f>VLOOKUP(A426,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C426" s="15">
+        <f>C425-25</f>
+        <v>475</v>
+      </c>
+      <c r="D426" s="9"/>
     </row>
     <row r="427" spans="1:5" ht="15" thickBot="1">
       <c r="A427" s="15" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="B427" s="9">
-        <v>2</v>
-      </c>
-      <c r="C427" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D427" s="9" t="str">
-        <f>CONCATENATE("0",C427,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E427" s="5"/>
+        <f>VLOOKUP(A427,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>129</v>
+      </c>
+      <c r="C427" s="15">
+        <f>C426-25</f>
+        <v>450</v>
+      </c>
+      <c r="D427" s="9"/>
     </row>
     <row r="428" spans="1:5" ht="15" thickBot="1">
-      <c r="A428" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B428" s="9">
-        <f>VLOOKUP(A428,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>131</v>
-      </c>
-      <c r="C428" s="15">
-        <v>700</v>
-      </c>
-      <c r="D428" s="9"/>
+      <c r="A428" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B428" s="13">
+        <v>83</v>
+      </c>
+      <c r="C428" s="24">
+        <v>450</v>
+      </c>
+      <c r="D428" s="9" t="str">
+        <f>CONCATENATE("0",C428,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E428" s="5"/>
     </row>
     <row r="429" spans="1:5" ht="15" thickBot="1">
       <c r="A429" s="15" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B429" s="9">
-        <f>VLOOKUP(A429,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>131</v>
-      </c>
-      <c r="C429" s="15">
-        <f>C428-25</f>
-        <v>675</v>
-      </c>
-      <c r="D429" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C429" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D429" s="9" t="str">
+        <f>CONCATENATE("0",C429,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E429" s="5"/>
     </row>
     <row r="430" spans="1:5" ht="15" thickBot="1">
       <c r="A430" s="15" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B430" s="9">
-        <f>VLOOKUP(A430,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>131</v>
-      </c>
-      <c r="C430" s="15">
-        <f>C429-25</f>
-        <v>650</v>
-      </c>
-      <c r="D430" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C430" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D430" s="9" t="str">
+        <f>CONCATENATE("0",C430,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E430" s="5"/>
     </row>
     <row r="431" spans="1:5" ht="15" thickBot="1">
       <c r="A431" s="15" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B431" s="9">
-        <f>VLOOKUP(A431,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>131</v>
-      </c>
-      <c r="C431" s="15">
-        <f>C430-25</f>
-        <v>625</v>
-      </c>
-      <c r="D431" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C431" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D431" s="9" t="str">
+        <f>CONCATENATE("0",C431,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E431" s="5"/>
     </row>
     <row r="432" spans="1:5" ht="15" thickBot="1">
       <c r="A432" s="15" t="s">
@@ -7502,8 +7499,7 @@
         <v>131</v>
       </c>
       <c r="C432" s="15">
-        <f>C431-25</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D432" s="9"/>
     </row>
@@ -7516,8 +7512,8 @@
         <v>131</v>
       </c>
       <c r="C433" s="15">
-        <f>C432-25</f>
-        <v>575</v>
+        <f t="shared" ref="C433:C440" si="21">C432-25</f>
+        <v>675</v>
       </c>
       <c r="D433" s="9"/>
     </row>
@@ -7530,8 +7526,8 @@
         <v>131</v>
       </c>
       <c r="C434" s="15">
-        <f>C433-25</f>
-        <v>550</v>
+        <f t="shared" si="21"/>
+        <v>650</v>
       </c>
       <c r="D434" s="9"/>
     </row>
@@ -7544,8 +7540,8 @@
         <v>131</v>
       </c>
       <c r="C435" s="15">
-        <f>C434-25</f>
-        <v>525</v>
+        <f t="shared" si="21"/>
+        <v>625</v>
       </c>
       <c r="D435" s="9"/>
     </row>
@@ -7558,64 +7554,64 @@
         <v>131</v>
       </c>
       <c r="C436" s="15">
-        <f>C435-25</f>
-        <v>500</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="D436" s="9"/>
     </row>
     <row r="437" spans="1:4" ht="15" thickBot="1">
       <c r="A437" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B437" s="9">
         <f>VLOOKUP(A437,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C437" s="15">
-        <f>650</f>
-        <v>650</v>
+        <f t="shared" si="21"/>
+        <v>575</v>
       </c>
       <c r="D437" s="9"/>
     </row>
     <row r="438" spans="1:4" ht="15" thickBot="1">
       <c r="A438" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B438" s="9">
         <f>VLOOKUP(A438,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C438" s="15">
-        <f>C437-25</f>
-        <v>625</v>
+        <f t="shared" si="21"/>
+        <v>550</v>
       </c>
       <c r="D438" s="9"/>
     </row>
     <row r="439" spans="1:4" ht="15" thickBot="1">
       <c r="A439" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B439" s="9">
         <f>VLOOKUP(A439,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C439" s="15">
-        <f>C438-25</f>
-        <v>600</v>
+        <f t="shared" si="21"/>
+        <v>525</v>
       </c>
       <c r="D439" s="9"/>
     </row>
     <row r="440" spans="1:4" ht="15" thickBot="1">
       <c r="A440" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B440" s="9">
         <f>VLOOKUP(A440,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C440" s="15">
-        <f>C439-25</f>
-        <v>575</v>
+        <f t="shared" si="21"/>
+        <v>500</v>
       </c>
       <c r="D440" s="9"/>
     </row>
@@ -7628,63 +7624,64 @@
         <v>132</v>
       </c>
       <c r="C441" s="15">
-        <f>C440-25</f>
-        <v>550</v>
+        <f>650</f>
+        <v>650</v>
       </c>
       <c r="D441" s="9"/>
     </row>
     <row r="442" spans="1:4" ht="15" thickBot="1">
       <c r="A442" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B442" s="9">
         <f>VLOOKUP(A442,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C442" s="15">
-        <v>500</v>
+        <f>C441-25</f>
+        <v>625</v>
       </c>
       <c r="D442" s="9"/>
     </row>
     <row r="443" spans="1:4" ht="15" thickBot="1">
       <c r="A443" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B443" s="9">
         <f>VLOOKUP(A443,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C443" s="15">
         <f>C442-25</f>
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="D443" s="9"/>
     </row>
     <row r="444" spans="1:4" ht="15" thickBot="1">
       <c r="A444" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B444" s="9">
         <f>VLOOKUP(A444,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C444" s="15">
         <f>C443-25</f>
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D444" s="9"/>
     </row>
     <row r="445" spans="1:4" ht="15" thickBot="1">
       <c r="A445" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B445" s="9">
         <f>VLOOKUP(A445,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C445" s="15">
         <f>C444-25</f>
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="D445" s="9"/>
     </row>
@@ -7697,8 +7694,7 @@
         <v>133</v>
       </c>
       <c r="C446" s="15">
-        <f>C445-25</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D446" s="9"/>
     </row>
@@ -7711,8 +7707,8 @@
         <v>133</v>
       </c>
       <c r="C447" s="15">
-        <f>C446-25</f>
-        <v>375</v>
+        <f t="shared" ref="C447:C454" si="22">C446-25</f>
+        <v>475</v>
       </c>
       <c r="D447" s="9"/>
     </row>
@@ -7725,12 +7721,12 @@
         <v>133</v>
       </c>
       <c r="C448" s="15">
-        <f>C447-25</f>
-        <v>350</v>
+        <f t="shared" si="22"/>
+        <v>450</v>
       </c>
       <c r="D448" s="9"/>
     </row>
-    <row r="449" spans="1:5" ht="15" thickBot="1">
+    <row r="449" spans="1:4" ht="15" thickBot="1">
       <c r="A449" s="15" t="s">
         <v>141</v>
       </c>
@@ -7739,12 +7735,12 @@
         <v>133</v>
       </c>
       <c r="C449" s="15">
-        <f>C448-25</f>
-        <v>325</v>
+        <f t="shared" si="22"/>
+        <v>425</v>
       </c>
       <c r="D449" s="9"/>
     </row>
-    <row r="450" spans="1:5" ht="15" thickBot="1">
+    <row r="450" spans="1:4" ht="15" thickBot="1">
       <c r="A450" s="15" t="s">
         <v>141</v>
       </c>
@@ -7753,67 +7749,68 @@
         <v>133</v>
       </c>
       <c r="C450" s="15">
-        <f>C449-25</f>
-        <v>300</v>
+        <f t="shared" si="22"/>
+        <v>400</v>
       </c>
       <c r="D450" s="9"/>
     </row>
-    <row r="451" spans="1:5" ht="15" thickBot="1">
+    <row r="451" spans="1:4" ht="15" thickBot="1">
       <c r="A451" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B451" s="9">
         <f>VLOOKUP(A451,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C451" s="15">
-        <v>700</v>
+        <f t="shared" si="22"/>
+        <v>375</v>
       </c>
       <c r="D451" s="9"/>
     </row>
-    <row r="452" spans="1:5" ht="15" thickBot="1">
+    <row r="452" spans="1:4" ht="15" thickBot="1">
       <c r="A452" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B452" s="9">
         <f>VLOOKUP(A452,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C452" s="15">
-        <f>C451-25</f>
-        <v>675</v>
+        <f t="shared" si="22"/>
+        <v>350</v>
       </c>
       <c r="D452" s="9"/>
     </row>
-    <row r="453" spans="1:5" ht="15" thickBot="1">
+    <row r="453" spans="1:4" ht="15" thickBot="1">
       <c r="A453" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B453" s="9">
         <f>VLOOKUP(A453,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C453" s="15">
-        <f>C452-25</f>
-        <v>650</v>
+        <f t="shared" si="22"/>
+        <v>325</v>
       </c>
       <c r="D453" s="9"/>
     </row>
-    <row r="454" spans="1:5" ht="15" thickBot="1">
+    <row r="454" spans="1:4" ht="15" thickBot="1">
       <c r="A454" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B454" s="9">
         <f>VLOOKUP(A454,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C454" s="15">
-        <f>C453-25</f>
-        <v>625</v>
+        <f t="shared" si="22"/>
+        <v>300</v>
       </c>
       <c r="D454" s="9"/>
     </row>
-    <row r="455" spans="1:5" ht="15" thickBot="1">
+    <row r="455" spans="1:4" ht="15" thickBot="1">
       <c r="A455" s="15" t="s">
         <v>142</v>
       </c>
@@ -7822,68 +7819,67 @@
         <v>134</v>
       </c>
       <c r="C455" s="15">
-        <f>C454-25</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D455" s="9"/>
     </row>
-    <row r="456" spans="1:5" ht="15" thickBot="1">
+    <row r="456" spans="1:4" ht="15" thickBot="1">
       <c r="A456" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B456" s="9">
         <f>VLOOKUP(A456,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C456" s="15">
-        <f>550</f>
-        <v>550</v>
+        <f>C455-25</f>
+        <v>675</v>
       </c>
       <c r="D456" s="9"/>
     </row>
-    <row r="457" spans="1:5" ht="15" thickBot="1">
+    <row r="457" spans="1:4" ht="15" thickBot="1">
       <c r="A457" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B457" s="9">
         <f>VLOOKUP(A457,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C457" s="15">
         <f>C456-25</f>
-        <v>525</v>
+        <v>650</v>
       </c>
       <c r="D457" s="9"/>
     </row>
-    <row r="458" spans="1:5" ht="15" thickBot="1">
+    <row r="458" spans="1:4" ht="15" thickBot="1">
       <c r="A458" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B458" s="9">
         <f>VLOOKUP(A458,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C458" s="15">
         <f>C457-25</f>
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="D458" s="9"/>
     </row>
-    <row r="459" spans="1:5" ht="15" thickBot="1">
+    <row r="459" spans="1:4" ht="15" thickBot="1">
       <c r="A459" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B459" s="9">
         <f>VLOOKUP(A459,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C459" s="15">
         <f>C458-25</f>
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="D459" s="9"/>
     </row>
-    <row r="460" spans="1:5" ht="15" thickBot="1">
+    <row r="460" spans="1:4" ht="15" thickBot="1">
       <c r="A460" s="15" t="s">
         <v>143</v>
       </c>
@@ -7892,113 +7888,114 @@
         <v>135</v>
       </c>
       <c r="C460" s="15">
-        <f>C459-25</f>
-        <v>450</v>
+        <f>550</f>
+        <v>550</v>
       </c>
       <c r="D460" s="9"/>
     </row>
-    <row r="461" spans="1:5" ht="15" thickBot="1">
-      <c r="A461" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B461" s="13">
-        <v>84</v>
-      </c>
-      <c r="C461" s="23">
-        <v>425</v>
-      </c>
-      <c r="D461" s="9" t="str">
-        <f>CONCATENATE("0",C461,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E461" s="5"/>
-    </row>
-    <row r="462" spans="1:5" ht="15" thickBot="1">
-      <c r="A462" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B462" s="13">
-        <v>84</v>
-      </c>
-      <c r="C462" s="23">
-        <v>400</v>
-      </c>
-      <c r="D462" s="9" t="str">
-        <f>CONCATENATE("0",C462,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E462" s="5"/>
-    </row>
-    <row r="463" spans="1:5" ht="15" thickBot="1">
-      <c r="A463" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B463" s="13">
-        <v>84</v>
-      </c>
-      <c r="C463" s="23">
-        <v>375</v>
-      </c>
-      <c r="D463" s="9" t="str">
-        <f>CONCATENATE("0",C463,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E463" s="5"/>
-    </row>
-    <row r="464" spans="1:5" ht="15" thickBot="1">
+    <row r="461" spans="1:4" ht="15" thickBot="1">
+      <c r="A461" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B461" s="9">
+        <f>VLOOKUP(A461,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C461" s="15">
+        <f>C460-25</f>
+        <v>525</v>
+      </c>
+      <c r="D461" s="9"/>
+    </row>
+    <row r="462" spans="1:4" ht="15" thickBot="1">
+      <c r="A462" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B462" s="9">
+        <f>VLOOKUP(A462,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C462" s="15">
+        <f>C461-25</f>
+        <v>500</v>
+      </c>
+      <c r="D462" s="9"/>
+    </row>
+    <row r="463" spans="1:4" ht="15" thickBot="1">
+      <c r="A463" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B463" s="9">
+        <f>VLOOKUP(A463,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>135</v>
+      </c>
+      <c r="C463" s="15">
+        <f>C462-25</f>
+        <v>475</v>
+      </c>
+      <c r="D463" s="9"/>
+    </row>
+    <row r="464" spans="1:4" ht="15" thickBot="1">
       <c r="A464" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B464" s="9">
         <f>VLOOKUP(A464,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C464" s="15">
-        <v>650</v>
+        <f>C463-25</f>
+        <v>450</v>
       </c>
       <c r="D464" s="9"/>
     </row>
     <row r="465" spans="1:5" ht="15" thickBot="1">
-      <c r="A465" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B465" s="9">
-        <f>VLOOKUP(A465,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="C465" s="15">
-        <f>C464-25</f>
-        <v>625</v>
-      </c>
-      <c r="D465" s="9"/>
+      <c r="A465" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B465" s="13">
+        <v>84</v>
+      </c>
+      <c r="C465" s="23">
+        <v>425</v>
+      </c>
+      <c r="D465" s="9" t="str">
+        <f>CONCATENATE("0",C465,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E465" s="5"/>
     </row>
     <row r="466" spans="1:5" ht="15" thickBot="1">
-      <c r="A466" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B466" s="9">
-        <f>VLOOKUP(A466,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="C466" s="15">
-        <f>C465-25</f>
-        <v>600</v>
-      </c>
-      <c r="D466" s="9"/>
+      <c r="A466" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B466" s="13">
+        <v>84</v>
+      </c>
+      <c r="C466" s="23">
+        <v>400</v>
+      </c>
+      <c r="D466" s="9" t="str">
+        <f>CONCATENATE("0",C466,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E466" s="5"/>
     </row>
     <row r="467" spans="1:5" ht="15" thickBot="1">
-      <c r="A467" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B467" s="9">
-        <f>VLOOKUP(A467,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="C467" s="15">
-        <f>C466-25</f>
-        <v>575</v>
-      </c>
-      <c r="D467" s="9"/>
+      <c r="A467" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B467" s="13">
+        <v>84</v>
+      </c>
+      <c r="C467" s="23">
+        <v>375</v>
+      </c>
+      <c r="D467" s="9" t="str">
+        <f>CONCATENATE("0",C467,"-01-01")</f>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E467" s="5"/>
     </row>
     <row r="468" spans="1:5" ht="15" thickBot="1">
       <c r="A468" s="15" t="s">
@@ -8009,63 +8006,63 @@
         <v>136</v>
       </c>
       <c r="C468" s="15">
-        <f>C467-25</f>
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="D468" s="9"/>
     </row>
     <row r="469" spans="1:5" ht="15" thickBot="1">
       <c r="A469" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B469" s="9">
         <f>VLOOKUP(A469,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C469" s="15">
-        <v>500</v>
+        <f>C468-25</f>
+        <v>625</v>
       </c>
       <c r="D469" s="9"/>
     </row>
     <row r="470" spans="1:5" ht="15" thickBot="1">
       <c r="A470" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B470" s="9">
         <f>VLOOKUP(A470,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C470" s="15">
         <f>C469-25</f>
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="D470" s="9"/>
     </row>
     <row r="471" spans="1:5" ht="15" thickBot="1">
       <c r="A471" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B471" s="9">
         <f>VLOOKUP(A471,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C471" s="15">
         <f>C470-25</f>
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D471" s="9"/>
     </row>
     <row r="472" spans="1:5" ht="15" thickBot="1">
       <c r="A472" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B472" s="9">
         <f>VLOOKUP(A472,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C472" s="15">
         <f>C471-25</f>
-        <v>425</v>
+        <v>550</v>
       </c>
       <c r="D472" s="9"/>
     </row>
@@ -8078,120 +8075,111 @@
         <v>137</v>
       </c>
       <c r="C473" s="15">
-        <f>C472-25</f>
+        <v>500</v>
+      </c>
+      <c r="D473" s="9"/>
+    </row>
+    <row r="474" spans="1:5" ht="15" thickBot="1">
+      <c r="A474" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B474" s="9">
+        <f>VLOOKUP(A474,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C474" s="15">
+        <f>C473-25</f>
+        <v>475</v>
+      </c>
+      <c r="D474" s="9"/>
+    </row>
+    <row r="475" spans="1:5" ht="15" thickBot="1">
+      <c r="A475" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B475" s="9">
+        <f>VLOOKUP(A475,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C475" s="15">
+        <f>C474-25</f>
+        <v>450</v>
+      </c>
+      <c r="D475" s="9"/>
+    </row>
+    <row r="476" spans="1:5" ht="15" thickBot="1">
+      <c r="A476" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B476" s="9">
+        <f>VLOOKUP(A476,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C476" s="15">
+        <f>C475-25</f>
+        <v>425</v>
+      </c>
+      <c r="D476" s="9"/>
+    </row>
+    <row r="477" spans="1:5" ht="15" thickBot="1">
+      <c r="A477" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B477" s="9">
+        <f>VLOOKUP(A477,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>137</v>
+      </c>
+      <c r="C477" s="15">
+        <f>C476-25</f>
         <v>400</v>
       </c>
-      <c r="D473" s="9"/>
-    </row>
-    <row r="474" spans="1:5" ht="15" thickBot="1">
-      <c r="A474" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B474" s="13">
-        <v>85</v>
-      </c>
-      <c r="C474" s="23">
-        <v>425</v>
-      </c>
-      <c r="D474" s="9" t="str">
-        <f>CONCATENATE("0",C474,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E474" s="5"/>
-    </row>
-    <row r="475" spans="1:5" ht="15" thickBot="1">
-      <c r="A475" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B475" s="13">
-        <v>85</v>
-      </c>
-      <c r="C475" s="23">
-        <v>400</v>
-      </c>
-      <c r="D475" s="9" t="str">
-        <f>CONCATENATE("0",C475,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E475" s="5"/>
-    </row>
-    <row r="476" spans="1:5" ht="15" thickBot="1">
-      <c r="A476" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B476" s="13">
-        <v>85</v>
-      </c>
-      <c r="C476" s="23">
-        <v>375</v>
-      </c>
-      <c r="D476" s="9" t="str">
-        <f>CONCATENATE("0",C476,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E476" s="5"/>
-    </row>
-    <row r="477" spans="1:5" ht="15" thickBot="1">
-      <c r="A477" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B477" s="13">
-        <v>86</v>
-      </c>
-      <c r="C477" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D477" s="9" t="str">
-        <f>CONCATENATE("0",C477,"-01-01")</f>
-        <v>0500-01-01</v>
-      </c>
-      <c r="E477" s="5"/>
+      <c r="D477" s="9"/>
     </row>
     <row r="478" spans="1:5" ht="15" thickBot="1">
       <c r="A478" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B478" s="13">
-        <v>86</v>
-      </c>
-      <c r="C478" s="22" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="C478" s="23">
+        <v>425</v>
       </c>
       <c r="D478" s="9" t="str">
-        <f>CONCATENATE("0",C478,"-01-01")</f>
-        <v>0475-01-01</v>
+        <f t="shared" ref="D478:D485" si="23">CONCATENATE("0",C478,"-01-01")</f>
+        <v>0425-01-01</v>
       </c>
       <c r="E478" s="5"/>
     </row>
     <row r="479" spans="1:5" ht="15" thickBot="1">
       <c r="A479" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B479" s="13">
-        <v>86</v>
-      </c>
-      <c r="C479" s="22" t="s">
-        <v>46</v>
+        <v>85</v>
+      </c>
+      <c r="C479" s="23">
+        <v>400</v>
       </c>
       <c r="D479" s="9" t="str">
-        <f>CONCATENATE("0",C479,"-01-01")</f>
-        <v>0450-01-01</v>
+        <f t="shared" si="23"/>
+        <v>0400-01-01</v>
       </c>
       <c r="E479" s="5"/>
     </row>
     <row r="480" spans="1:5" ht="15" thickBot="1">
       <c r="A480" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B480" s="13">
-        <v>86</v>
-      </c>
-      <c r="C480" s="22" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+      <c r="C480" s="23">
+        <v>375</v>
       </c>
       <c r="D480" s="9" t="str">
-        <f>CONCATENATE("0",C480,"-01-01")</f>
-        <v>0425-01-01</v>
+        <f t="shared" si="23"/>
+        <v>0375-01-01</v>
       </c>
       <c r="E480" s="5"/>
     </row>
@@ -8203,68 +8191,77 @@
         <v>86</v>
       </c>
       <c r="C481" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D481" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>0500-01-01</v>
+      </c>
+      <c r="E481" s="5"/>
+    </row>
+    <row r="482" spans="1:5" ht="15" thickBot="1">
+      <c r="A482" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B482" s="13">
+        <v>86</v>
+      </c>
+      <c r="C482" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D482" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>0475-01-01</v>
+      </c>
+      <c r="E482" s="5"/>
+    </row>
+    <row r="483" spans="1:5" ht="15" thickBot="1">
+      <c r="A483" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B483" s="13">
+        <v>86</v>
+      </c>
+      <c r="C483" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D483" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484" spans="1:5" ht="15" thickBot="1">
+      <c r="A484" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B484" s="13">
+        <v>86</v>
+      </c>
+      <c r="C484" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D484" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E484" s="5"/>
+    </row>
+    <row r="485" spans="1:5" ht="15" thickBot="1">
+      <c r="A485" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B485" s="13">
+        <v>86</v>
+      </c>
+      <c r="C485" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D481" s="9" t="str">
-        <f>CONCATENATE("0",C481,"-01-01")</f>
+      <c r="D485" s="9" t="str">
+        <f t="shared" si="23"/>
         <v>0400-01-01</v>
       </c>
-      <c r="E481" s="5"/>
-    </row>
-    <row r="482" spans="1:5" ht="15" thickBot="1">
-      <c r="A482" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B482" s="9">
-        <f>VLOOKUP(A482,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="C482" s="15">
-        <v>650</v>
-      </c>
-      <c r="D482" s="9"/>
-    </row>
-    <row r="483" spans="1:5" ht="15" thickBot="1">
-      <c r="A483" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B483" s="9">
-        <f>VLOOKUP(A483,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="C483" s="15">
-        <f>C482-25</f>
-        <v>625</v>
-      </c>
-      <c r="D483" s="9"/>
-    </row>
-    <row r="484" spans="1:5" ht="15" thickBot="1">
-      <c r="A484" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B484" s="9">
-        <f>VLOOKUP(A484,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="C484" s="15">
-        <f>C483-25</f>
-        <v>600</v>
-      </c>
-      <c r="D484" s="9"/>
-    </row>
-    <row r="485" spans="1:5" ht="15" thickBot="1">
-      <c r="A485" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B485" s="9">
-        <f>VLOOKUP(A485,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="C485" s="15">
-        <f>C484-25</f>
-        <v>575</v>
-      </c>
-      <c r="D485" s="9"/>
+      <c r="E485" s="5"/>
     </row>
     <row r="486" spans="1:5" ht="15" thickBot="1">
       <c r="A486" s="15" t="s">
@@ -8275,100 +8272,97 @@
         <v>138</v>
       </c>
       <c r="C486" s="15">
-        <f>C485-25</f>
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="D486" s="9"/>
     </row>
     <row r="487" spans="1:5" ht="15" thickBot="1">
       <c r="A487" s="15" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B487" s="9">
-        <v>30</v>
-      </c>
-      <c r="C487" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D487" s="9" t="str">
-        <f>CONCATENATE("0",C487,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E487" s="5"/>
+        <f>VLOOKUP(A487,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C487" s="15">
+        <f>C486-25</f>
+        <v>625</v>
+      </c>
+      <c r="D487" s="9"/>
     </row>
     <row r="488" spans="1:5" ht="15" thickBot="1">
       <c r="A488" s="15" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B488" s="9">
-        <v>30</v>
-      </c>
-      <c r="C488" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D488" s="9" t="str">
-        <f>CONCATENATE("0",C488,"-01-01")</f>
-        <v>0350-01-01</v>
-      </c>
-      <c r="E488" s="5"/>
+        <f>VLOOKUP(A488,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C488" s="15">
+        <f>C487-25</f>
+        <v>600</v>
+      </c>
+      <c r="D488" s="9"/>
     </row>
     <row r="489" spans="1:5" ht="15" thickBot="1">
       <c r="A489" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B489" s="9">
         <f>VLOOKUP(A489,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C489" s="15">
-        <v>700</v>
+        <f>C488-25</f>
+        <v>575</v>
       </c>
       <c r="D489" s="9"/>
-      <c r="E489" s="2" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="490" spans="1:5" ht="15" thickBot="1">
       <c r="A490" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B490" s="9">
         <f>VLOOKUP(A490,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C490" s="15">
         <f>C489-25</f>
-        <v>675</v>
+        <v>550</v>
       </c>
       <c r="D490" s="9"/>
     </row>
     <row r="491" spans="1:5" ht="15" thickBot="1">
       <c r="A491" s="15" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B491" s="9">
-        <f>VLOOKUP(A491,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>139</v>
-      </c>
-      <c r="C491" s="15">
-        <f>C490-25</f>
-        <v>650</v>
-      </c>
-      <c r="D491" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C491" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D491" s="9" t="str">
+        <f>CONCATENATE("0",C491,"-01-01")</f>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E491" s="5"/>
     </row>
     <row r="492" spans="1:5" ht="15" thickBot="1">
       <c r="A492" s="15" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B492" s="9">
-        <f>VLOOKUP(A492,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>139</v>
-      </c>
-      <c r="C492" s="15">
-        <f>C491-25</f>
-        <v>625</v>
-      </c>
-      <c r="D492" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="C492" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D492" s="9" t="str">
+        <f>CONCATENATE("0",C492,"-01-01")</f>
+        <v>0350-01-01</v>
+      </c>
+      <c r="E492" s="5"/>
     </row>
     <row r="493" spans="1:5" ht="15" thickBot="1">
       <c r="A493" s="15" t="s">
@@ -8379,10 +8373,12 @@
         <v>139</v>
       </c>
       <c r="C493" s="15">
-        <f>C492-25</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D493" s="9"/>
+      <c r="E493" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="494" spans="1:5" ht="15" thickBot="1">
       <c r="A494" s="15" t="s">
@@ -8393,8 +8389,8 @@
         <v>139</v>
       </c>
       <c r="C494" s="15">
-        <f>C493-25</f>
-        <v>575</v>
+        <f t="shared" ref="C494:C505" si="24">C493-25</f>
+        <v>675</v>
       </c>
       <c r="D494" s="9"/>
     </row>
@@ -8407,8 +8403,8 @@
         <v>139</v>
       </c>
       <c r="C495" s="15">
-        <f>C494-25</f>
-        <v>550</v>
+        <f t="shared" si="24"/>
+        <v>650</v>
       </c>
       <c r="D495" s="9"/>
     </row>
@@ -8421,12 +8417,12 @@
         <v>139</v>
       </c>
       <c r="C496" s="15">
-        <f>C495-25</f>
-        <v>525</v>
+        <f t="shared" si="24"/>
+        <v>625</v>
       </c>
       <c r="D496" s="9"/>
     </row>
-    <row r="497" spans="1:5" ht="15" thickBot="1">
+    <row r="497" spans="1:4" ht="15" thickBot="1">
       <c r="A497" s="15" t="s">
         <v>147</v>
       </c>
@@ -8435,12 +8431,12 @@
         <v>139</v>
       </c>
       <c r="C497" s="15">
-        <f>C496-25</f>
-        <v>500</v>
+        <f t="shared" si="24"/>
+        <v>600</v>
       </c>
       <c r="D497" s="9"/>
     </row>
-    <row r="498" spans="1:5" ht="15" thickBot="1">
+    <row r="498" spans="1:4" ht="15" thickBot="1">
       <c r="A498" s="15" t="s">
         <v>147</v>
       </c>
@@ -8449,12 +8445,12 @@
         <v>139</v>
       </c>
       <c r="C498" s="15">
-        <f>C497-25</f>
-        <v>475</v>
+        <f t="shared" si="24"/>
+        <v>575</v>
       </c>
       <c r="D498" s="9"/>
     </row>
-    <row r="499" spans="1:5" ht="15" thickBot="1">
+    <row r="499" spans="1:4" ht="15" thickBot="1">
       <c r="A499" s="15" t="s">
         <v>147</v>
       </c>
@@ -8463,12 +8459,12 @@
         <v>139</v>
       </c>
       <c r="C499" s="15">
-        <f>C498-25</f>
-        <v>450</v>
+        <f t="shared" si="24"/>
+        <v>550</v>
       </c>
       <c r="D499" s="9"/>
     </row>
-    <row r="500" spans="1:5" ht="15" thickBot="1">
+    <row r="500" spans="1:4" ht="15" thickBot="1">
       <c r="A500" s="15" t="s">
         <v>147</v>
       </c>
@@ -8477,12 +8473,12 @@
         <v>139</v>
       </c>
       <c r="C500" s="15">
-        <f>C499-25</f>
-        <v>425</v>
+        <f t="shared" si="24"/>
+        <v>525</v>
       </c>
       <c r="D500" s="9"/>
     </row>
-    <row r="501" spans="1:5" ht="15" thickBot="1">
+    <row r="501" spans="1:4" ht="15" thickBot="1">
       <c r="A501" s="15" t="s">
         <v>147</v>
       </c>
@@ -8491,67 +8487,68 @@
         <v>139</v>
       </c>
       <c r="C501" s="15">
-        <f>C500-25</f>
-        <v>400</v>
+        <f t="shared" si="24"/>
+        <v>500</v>
       </c>
       <c r="D501" s="9"/>
     </row>
-    <row r="502" spans="1:5" ht="15" thickBot="1">
+    <row r="502" spans="1:4" ht="15" thickBot="1">
       <c r="A502" s="15" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B502" s="9">
         <f>VLOOKUP(A502,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C502" s="15">
-        <v>600</v>
+        <f t="shared" si="24"/>
+        <v>475</v>
       </c>
       <c r="D502" s="9"/>
     </row>
-    <row r="503" spans="1:5" ht="15" thickBot="1">
+    <row r="503" spans="1:4" ht="15" thickBot="1">
       <c r="A503" s="15" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B503" s="9">
         <f>VLOOKUP(A503,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C503" s="15">
-        <f>C502-25</f>
-        <v>575</v>
+        <f t="shared" si="24"/>
+        <v>450</v>
       </c>
       <c r="D503" s="9"/>
     </row>
-    <row r="504" spans="1:5" ht="15" thickBot="1">
+    <row r="504" spans="1:4" ht="15" thickBot="1">
       <c r="A504" s="15" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B504" s="9">
         <f>VLOOKUP(A504,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C504" s="15">
-        <f>C503-25</f>
-        <v>550</v>
+        <f t="shared" si="24"/>
+        <v>425</v>
       </c>
       <c r="D504" s="9"/>
     </row>
-    <row r="505" spans="1:5" ht="15" thickBot="1">
+    <row r="505" spans="1:4" ht="15" thickBot="1">
       <c r="A505" s="15" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B505" s="9">
         <f>VLOOKUP(A505,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C505" s="15">
-        <f>C504-25</f>
-        <v>525</v>
+        <f t="shared" si="24"/>
+        <v>400</v>
       </c>
       <c r="D505" s="9"/>
     </row>
-    <row r="506" spans="1:5" ht="15" thickBot="1">
+    <row r="506" spans="1:4" ht="15" thickBot="1">
       <c r="A506" s="15" t="s">
         <v>94</v>
       </c>
@@ -8560,12 +8557,11 @@
         <v>54</v>
       </c>
       <c r="C506" s="15">
-        <f>C505-25</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D506" s="9"/>
     </row>
-    <row r="507" spans="1:5" ht="15" thickBot="1">
+    <row r="507" spans="1:4" ht="15" thickBot="1">
       <c r="A507" s="15" t="s">
         <v>94</v>
       </c>
@@ -8574,12 +8570,12 @@
         <v>54</v>
       </c>
       <c r="C507" s="15">
-        <f>C506-25</f>
-        <v>475</v>
+        <f t="shared" ref="C507:C514" si="25">C506-25</f>
+        <v>575</v>
       </c>
       <c r="D507" s="9"/>
     </row>
-    <row r="508" spans="1:5" ht="15" thickBot="1">
+    <row r="508" spans="1:4" ht="15" thickBot="1">
       <c r="A508" s="15" t="s">
         <v>94</v>
       </c>
@@ -8588,12 +8584,12 @@
         <v>54</v>
       </c>
       <c r="C508" s="15">
-        <f>C507-25</f>
-        <v>450</v>
+        <f t="shared" si="25"/>
+        <v>550</v>
       </c>
       <c r="D508" s="9"/>
     </row>
-    <row r="509" spans="1:5" ht="15" thickBot="1">
+    <row r="509" spans="1:4" ht="15" thickBot="1">
       <c r="A509" s="15" t="s">
         <v>94</v>
       </c>
@@ -8602,12 +8598,12 @@
         <v>54</v>
       </c>
       <c r="C509" s="15">
-        <f>C508-25</f>
-        <v>425</v>
+        <f t="shared" si="25"/>
+        <v>525</v>
       </c>
       <c r="D509" s="9"/>
     </row>
-    <row r="510" spans="1:5" ht="15" thickBot="1">
+    <row r="510" spans="1:4" ht="15" thickBot="1">
       <c r="A510" s="15" t="s">
         <v>94</v>
       </c>
@@ -8616,184 +8612,185 @@
         <v>54</v>
       </c>
       <c r="C510" s="15">
-        <f>C509-25</f>
-        <v>400</v>
+        <f t="shared" si="25"/>
+        <v>500</v>
       </c>
       <c r="D510" s="9"/>
     </row>
-    <row r="511" spans="1:5" ht="15" thickBot="1">
+    <row r="511" spans="1:4" ht="15" thickBot="1">
       <c r="A511" s="15" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B511" s="9">
-        <v>7</v>
-      </c>
-      <c r="C511" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D511" s="9" t="str">
-        <f>CONCATENATE("0",C511,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E511" s="5"/>
-    </row>
-    <row r="512" spans="1:5" ht="15" thickBot="1">
+        <f>VLOOKUP(A511,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C511" s="15">
+        <f t="shared" si="25"/>
+        <v>475</v>
+      </c>
+      <c r="D511" s="9"/>
+    </row>
+    <row r="512" spans="1:4" ht="15" thickBot="1">
       <c r="A512" s="15" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B512" s="9">
-        <v>7</v>
-      </c>
-      <c r="C512" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D512" s="9" t="str">
-        <f>CONCATENATE("0",C512,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E512" s="5"/>
+        <f>VLOOKUP(A512,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C512" s="15">
+        <f t="shared" si="25"/>
+        <v>450</v>
+      </c>
+      <c r="D512" s="9"/>
     </row>
     <row r="513" spans="1:5" ht="15" thickBot="1">
       <c r="A513" s="15" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B513" s="9">
-        <v>22</v>
-      </c>
-      <c r="C513" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D513" s="9" t="str">
-        <f>CONCATENATE("0",C513,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E513" s="5"/>
+        <f>VLOOKUP(A513,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C513" s="15">
+        <f t="shared" si="25"/>
+        <v>425</v>
+      </c>
+      <c r="D513" s="9"/>
     </row>
     <row r="514" spans="1:5" ht="15" thickBot="1">
       <c r="A514" s="15" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B514" s="9">
-        <v>22</v>
-      </c>
-      <c r="C514" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D514" s="9" t="str">
-        <f>CONCATENATE("0",C514,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E514" s="5"/>
+        <f>VLOOKUP(A514,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="C514" s="15">
+        <f t="shared" si="25"/>
+        <v>400</v>
+      </c>
+      <c r="D514" s="9"/>
     </row>
     <row r="515" spans="1:5" ht="15" thickBot="1">
       <c r="A515" s="15" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B515" s="9">
-        <v>22</v>
-      </c>
-      <c r="C515" s="21" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="C515" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="D515" s="9" t="str">
         <f>CONCATENATE("0",C515,"-01-01")</f>
-        <v>0350-01-01</v>
+        <v>0425-01-01</v>
       </c>
       <c r="E515" s="5"/>
     </row>
     <row r="516" spans="1:5" ht="15" thickBot="1">
       <c r="A516" s="15" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="B516" s="9">
-        <f>VLOOKUP(A516,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>141</v>
-      </c>
-      <c r="C516" s="15">
-        <v>700</v>
-      </c>
-      <c r="D516" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="C516" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D516" s="9" t="str">
+        <f>CONCATENATE("0",C516,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E516" s="5"/>
     </row>
     <row r="517" spans="1:5" ht="15" thickBot="1">
       <c r="A517" s="15" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="B517" s="9">
-        <f>VLOOKUP(A517,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>141</v>
-      </c>
-      <c r="C517" s="15">
-        <f>C516-25</f>
-        <v>675</v>
-      </c>
-      <c r="D517" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C517" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D517" s="9" t="str">
+        <f>CONCATENATE("0",C517,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E517" s="5"/>
     </row>
     <row r="518" spans="1:5" ht="15" thickBot="1">
       <c r="A518" s="15" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="B518" s="9">
-        <f>VLOOKUP(A518,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>141</v>
-      </c>
-      <c r="C518" s="15">
-        <f>C517-25</f>
-        <v>650</v>
-      </c>
-      <c r="D518" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C518" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D518" s="9" t="str">
+        <f>CONCATENATE("0",C518,"-01-01")</f>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E518" s="5"/>
     </row>
     <row r="519" spans="1:5" ht="15" thickBot="1">
       <c r="A519" s="15" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B519" s="9">
-        <f>VLOOKUP(A519,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>142</v>
-      </c>
-      <c r="C519" s="15">
-        <v>700</v>
-      </c>
-      <c r="D519" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C519" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D519" s="9" t="str">
+        <f>CONCATENATE("0",C519,"-01-01")</f>
+        <v>0350-01-01</v>
+      </c>
+      <c r="E519" s="5"/>
     </row>
     <row r="520" spans="1:5" ht="15" thickBot="1">
       <c r="A520" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B520" s="9">
         <f>VLOOKUP(A520,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C520" s="15">
-        <f>C519-25</f>
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="D520" s="9"/>
     </row>
     <row r="521" spans="1:5" ht="15" thickBot="1">
       <c r="A521" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B521" s="9">
         <f>VLOOKUP(A521,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C521" s="15">
         <f>C520-25</f>
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D521" s="9"/>
     </row>
     <row r="522" spans="1:5" ht="15" thickBot="1">
       <c r="A522" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B522" s="9">
         <f>VLOOKUP(A522,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C522" s="15">
         <f>C521-25</f>
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="D522" s="9"/>
     </row>
@@ -8806,74 +8803,65 @@
         <v>142</v>
       </c>
       <c r="C523" s="15">
-        <f>C522-25</f>
+        <v>700</v>
+      </c>
+      <c r="D523" s="9"/>
+    </row>
+    <row r="524" spans="1:5" ht="15" thickBot="1">
+      <c r="A524" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B524" s="9">
+        <f>VLOOKUP(A524,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C524" s="15">
+        <f>C523-25</f>
+        <v>675</v>
+      </c>
+      <c r="D524" s="9"/>
+    </row>
+    <row r="525" spans="1:5" ht="15" thickBot="1">
+      <c r="A525" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B525" s="9">
+        <f>VLOOKUP(A525,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C525" s="15">
+        <f>C524-25</f>
+        <v>650</v>
+      </c>
+      <c r="D525" s="9"/>
+    </row>
+    <row r="526" spans="1:5" ht="15" thickBot="1">
+      <c r="A526" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B526" s="9">
+        <f>VLOOKUP(A526,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C526" s="15">
+        <f>C525-25</f>
+        <v>625</v>
+      </c>
+      <c r="D526" s="9"/>
+    </row>
+    <row r="527" spans="1:5" ht="15" thickBot="1">
+      <c r="A527" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B527" s="9">
+        <f>VLOOKUP(A527,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>142</v>
+      </c>
+      <c r="C527" s="15">
+        <f>C526-25</f>
         <v>600</v>
       </c>
-      <c r="D523" s="9"/>
-    </row>
-    <row r="524" spans="1:5" ht="15" thickBot="1">
-      <c r="A524" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B524" s="13">
-        <v>87</v>
-      </c>
-      <c r="C524" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D524" s="9" t="str">
-        <f>CONCATENATE("0",C524,"-01-01")</f>
-        <v>0500-01-01</v>
-      </c>
-      <c r="E524" s="5"/>
-    </row>
-    <row r="525" spans="1:5" ht="15" thickBot="1">
-      <c r="A525" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B525" s="13">
-        <v>87</v>
-      </c>
-      <c r="C525" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D525" s="9" t="str">
-        <f>CONCATENATE("0",C525,"-01-01")</f>
-        <v>0475-01-01</v>
-      </c>
-      <c r="E525" s="5"/>
-    </row>
-    <row r="526" spans="1:5" ht="15" thickBot="1">
-      <c r="A526" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B526" s="13">
-        <v>87</v>
-      </c>
-      <c r="C526" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D526" s="9" t="str">
-        <f>CONCATENATE("0",C526,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E526" s="5"/>
-    </row>
-    <row r="527" spans="1:5" ht="15" thickBot="1">
-      <c r="A527" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B527" s="13">
-        <v>87</v>
-      </c>
-      <c r="C527" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D527" s="9" t="str">
-        <f>CONCATENATE("0",C527,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E527" s="5"/>
+      <c r="D527" s="9"/>
     </row>
     <row r="528" spans="1:5" ht="15" thickBot="1">
       <c r="A528" s="19" t="s">
@@ -8883,68 +8871,77 @@
         <v>87</v>
       </c>
       <c r="C528" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D528" s="9" t="str">
         <f>CONCATENATE("0",C528,"-01-01")</f>
+        <v>0500-01-01</v>
+      </c>
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529" spans="1:5" ht="15" thickBot="1">
+      <c r="A529" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B529" s="13">
+        <v>87</v>
+      </c>
+      <c r="C529" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D529" s="9" t="str">
+        <f>CONCATENATE("0",C529,"-01-01")</f>
+        <v>0475-01-01</v>
+      </c>
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="1:5" ht="15" thickBot="1">
+      <c r="A530" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B530" s="13">
+        <v>87</v>
+      </c>
+      <c r="C530" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D530" s="9" t="str">
+        <f>CONCATENATE("0",C530,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531" spans="1:5" ht="15" thickBot="1">
+      <c r="A531" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B531" s="13">
+        <v>87</v>
+      </c>
+      <c r="C531" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D531" s="9" t="str">
+        <f>CONCATENATE("0",C531,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532" spans="1:5" ht="15" thickBot="1">
+      <c r="A532" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B532" s="13">
+        <v>87</v>
+      </c>
+      <c r="C532" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D532" s="9" t="str">
+        <f>CONCATENATE("0",C532,"-01-01")</f>
         <v>0400-01-01</v>
       </c>
-      <c r="E528" s="5"/>
-    </row>
-    <row r="529" spans="1:5" ht="15" thickBot="1">
-      <c r="A529" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B529" s="9">
-        <f>VLOOKUP(A529,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="C529" s="15">
-        <v>700</v>
-      </c>
-      <c r="D529" s="9"/>
-    </row>
-    <row r="530" spans="1:5" ht="15" thickBot="1">
-      <c r="A530" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B530" s="9">
-        <f>VLOOKUP(A530,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="C530" s="15">
-        <f>C529-25</f>
-        <v>675</v>
-      </c>
-      <c r="D530" s="9"/>
-    </row>
-    <row r="531" spans="1:5" ht="15" thickBot="1">
-      <c r="A531" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B531" s="9">
-        <f>VLOOKUP(A531,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="C531" s="15">
-        <f>C530-25</f>
-        <v>650</v>
-      </c>
-      <c r="D531" s="9"/>
-    </row>
-    <row r="532" spans="1:5" ht="15" thickBot="1">
-      <c r="A532" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B532" s="9">
-        <f>VLOOKUP(A532,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>143</v>
-      </c>
-      <c r="C532" s="15">
-        <f>C531-25</f>
-        <v>625</v>
-      </c>
-      <c r="D532" s="9"/>
+      <c r="E532" s="5"/>
     </row>
     <row r="533" spans="1:5" ht="15" thickBot="1">
       <c r="A533" s="15" t="s">
@@ -8955,113 +8952,113 @@
         <v>143</v>
       </c>
       <c r="C533" s="15">
-        <f>C532-25</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D533" s="9"/>
     </row>
     <row r="534" spans="1:5" ht="15" thickBot="1">
       <c r="A534" s="15" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B534" s="9">
-        <v>45</v>
-      </c>
-      <c r="C534" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D534" s="9" t="str">
-        <f>CONCATENATE("0",C534,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E534" s="5"/>
+        <f>VLOOKUP(A534,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="C534" s="15">
+        <f>C533-25</f>
+        <v>675</v>
+      </c>
+      <c r="D534" s="9"/>
     </row>
     <row r="535" spans="1:5" ht="15" thickBot="1">
       <c r="A535" s="15" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B535" s="9">
-        <v>45</v>
-      </c>
-      <c r="C535" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D535" s="9" t="str">
-        <f>CONCATENATE("0",C535,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E535" s="5"/>
+        <f>VLOOKUP(A535,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="C535" s="15">
+        <f>C534-25</f>
+        <v>650</v>
+      </c>
+      <c r="D535" s="9"/>
     </row>
     <row r="536" spans="1:5" ht="15" thickBot="1">
       <c r="A536" s="15" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B536" s="9">
-        <v>45</v>
-      </c>
-      <c r="C536" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D536" s="9" t="str">
-        <f>CONCATENATE("0",C536,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E536" s="5"/>
+        <f>VLOOKUP(A536,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="C536" s="15">
+        <f>C535-25</f>
+        <v>625</v>
+      </c>
+      <c r="D536" s="9"/>
     </row>
     <row r="537" spans="1:5" ht="15" thickBot="1">
       <c r="A537" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B537" s="9">
         <f>VLOOKUP(A537,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C537" s="15">
-        <v>500</v>
+        <f>C536-25</f>
+        <v>600</v>
       </c>
       <c r="D537" s="9"/>
     </row>
     <row r="538" spans="1:5" ht="15" thickBot="1">
       <c r="A538" s="15" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B538" s="9">
-        <f>VLOOKUP(A538,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>144</v>
-      </c>
-      <c r="C538" s="15">
-        <f>C537-25</f>
-        <v>475</v>
-      </c>
-      <c r="D538" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C538" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D538" s="9" t="str">
+        <f>CONCATENATE("0",C538,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E538" s="5"/>
     </row>
     <row r="539" spans="1:5" ht="15" thickBot="1">
       <c r="A539" s="15" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B539" s="9">
-        <f>VLOOKUP(A539,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>144</v>
-      </c>
-      <c r="C539" s="15">
-        <f>C538-25</f>
-        <v>450</v>
-      </c>
-      <c r="D539" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C539" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D539" s="9" t="str">
+        <f>CONCATENATE("0",C539,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E539" s="5"/>
     </row>
     <row r="540" spans="1:5" ht="15" thickBot="1">
       <c r="A540" s="15" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B540" s="9">
-        <f>VLOOKUP(A540,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>144</v>
-      </c>
-      <c r="C540" s="15">
-        <f>C539-25</f>
-        <v>425</v>
-      </c>
-      <c r="D540" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C540" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D540" s="9" t="str">
+        <f>CONCATENATE("0",C540,"-01-01")</f>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E540" s="5"/>
     </row>
     <row r="541" spans="1:5" ht="15" thickBot="1">
       <c r="A541" s="15" t="s">
@@ -9072,74 +9069,65 @@
         <v>144</v>
       </c>
       <c r="C541" s="15">
-        <f>C540-25</f>
+        <v>500</v>
+      </c>
+      <c r="D541" s="9"/>
+    </row>
+    <row r="542" spans="1:5" ht="15" thickBot="1">
+      <c r="A542" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B542" s="9">
+        <f>VLOOKUP(A542,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C542" s="15">
+        <f>C541-25</f>
+        <v>475</v>
+      </c>
+      <c r="D542" s="9"/>
+    </row>
+    <row r="543" spans="1:5" ht="15" thickBot="1">
+      <c r="A543" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B543" s="9">
+        <f>VLOOKUP(A543,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C543" s="15">
+        <f>C542-25</f>
+        <v>450</v>
+      </c>
+      <c r="D543" s="9"/>
+    </row>
+    <row r="544" spans="1:5" ht="15" thickBot="1">
+      <c r="A544" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B544" s="9">
+        <f>VLOOKUP(A544,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C544" s="15">
+        <f>C543-25</f>
+        <v>425</v>
+      </c>
+      <c r="D544" s="9"/>
+    </row>
+    <row r="545" spans="1:5" ht="15" thickBot="1">
+      <c r="A545" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B545" s="9">
+        <f>VLOOKUP(A545,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="C545" s="15">
+        <f>C544-25</f>
         <v>400</v>
       </c>
-      <c r="D541" s="9"/>
-    </row>
-    <row r="542" spans="1:5" ht="15" thickBot="1">
-      <c r="A542" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B542" s="13">
-        <v>88</v>
-      </c>
-      <c r="C542" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D542" s="9" t="str">
-        <f>CONCATENATE("0",C542,"-01-01")</f>
-        <v>0500-01-01</v>
-      </c>
-      <c r="E542" s="5"/>
-    </row>
-    <row r="543" spans="1:5" ht="15" thickBot="1">
-      <c r="A543" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B543" s="13">
-        <v>88</v>
-      </c>
-      <c r="C543" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D543" s="9" t="str">
-        <f>CONCATENATE("0",C543,"-01-01")</f>
-        <v>0475-01-01</v>
-      </c>
-      <c r="E543" s="5"/>
-    </row>
-    <row r="544" spans="1:5" ht="15" thickBot="1">
-      <c r="A544" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B544" s="13">
-        <v>88</v>
-      </c>
-      <c r="C544" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D544" s="9" t="str">
-        <f>CONCATENATE("0",C544,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-      <c r="E544" s="5"/>
-    </row>
-    <row r="545" spans="1:5" ht="15" thickBot="1">
-      <c r="A545" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B545" s="13">
-        <v>88</v>
-      </c>
-      <c r="C545" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D545" s="9" t="str">
-        <f>CONCATENATE("0",C545,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E545" s="5"/>
+      <c r="D545" s="9"/>
     </row>
     <row r="546" spans="1:5" ht="15" thickBot="1">
       <c r="A546" s="19" t="s">
@@ -9149,132 +9137,141 @@
         <v>88</v>
       </c>
       <c r="C546" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D546" s="9" t="str">
+        <f t="shared" ref="D546:D554" si="26">CONCATENATE("0",C546,"-01-01")</f>
+        <v>0500-01-01</v>
+      </c>
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547" spans="1:5" ht="15" thickBot="1">
+      <c r="A547" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B547" s="13">
+        <v>88</v>
+      </c>
+      <c r="C547" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D547" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0475-01-01</v>
+      </c>
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" spans="1:5" ht="15" thickBot="1">
+      <c r="A548" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B548" s="13">
+        <v>88</v>
+      </c>
+      <c r="C548" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D548" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0450-01-01</v>
+      </c>
+      <c r="E548" s="5"/>
+    </row>
+    <row r="549" spans="1:5" ht="15" thickBot="1">
+      <c r="A549" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B549" s="13">
+        <v>88</v>
+      </c>
+      <c r="C549" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D549" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E549" s="5"/>
+    </row>
+    <row r="550" spans="1:5" ht="15" thickBot="1">
+      <c r="A550" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B550" s="13">
+        <v>88</v>
+      </c>
+      <c r="C550" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D546" s="9" t="str">
-        <f>CONCATENATE("0",C546,"-01-01")</f>
+      <c r="D550" s="9" t="str">
+        <f t="shared" si="26"/>
         <v>0400-01-01</v>
-      </c>
-      <c r="E546" s="5"/>
-    </row>
-    <row r="547" spans="1:5" ht="15" thickBot="1">
-      <c r="A547" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B547" s="9">
-        <v>6</v>
-      </c>
-      <c r="C547" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D547" s="9" t="str">
-        <f>CONCATENATE("0",C547,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
-      <c r="E547" s="5"/>
-    </row>
-    <row r="548" spans="1:5" ht="15" thickBot="1">
-      <c r="A548" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B548" s="9">
-        <v>6</v>
-      </c>
-      <c r="C548" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D548" s="9" t="str">
-        <f>CONCATENATE("0",C548,"-01-01")</f>
-        <v>0400-01-01</v>
-      </c>
-      <c r="E548" s="5"/>
-    </row>
-    <row r="549" spans="1:5" ht="15" thickBot="1">
-      <c r="A549" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B549" s="9">
-        <v>6</v>
-      </c>
-      <c r="C549" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D549" s="9" t="str">
-        <f>CONCATENATE("0",C549,"-01-01")</f>
-        <v>0375-01-01</v>
-      </c>
-      <c r="E549" s="5"/>
-    </row>
-    <row r="550" spans="1:5" ht="15" thickBot="1">
-      <c r="A550" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B550" s="9">
-        <v>6</v>
-      </c>
-      <c r="C550" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D550" s="9" t="str">
-        <f>CONCATENATE("0",C550,"-01-01")</f>
-        <v>0350-01-01</v>
       </c>
       <c r="E550" s="5"/>
     </row>
     <row r="551" spans="1:5" ht="15" thickBot="1">
       <c r="A551" s="15" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B551" s="9">
-        <f>VLOOKUP(A551,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>146</v>
-      </c>
-      <c r="C551" s="15">
-        <v>600</v>
-      </c>
-      <c r="D551" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C551" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D551" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0425-01-01</v>
+      </c>
+      <c r="E551" s="5"/>
     </row>
     <row r="552" spans="1:5" ht="15" thickBot="1">
       <c r="A552" s="15" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B552" s="9">
-        <f>VLOOKUP(A552,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>146</v>
-      </c>
-      <c r="C552" s="15">
-        <f>C551-25</f>
-        <v>575</v>
-      </c>
-      <c r="D552" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C552" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D552" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0400-01-01</v>
+      </c>
+      <c r="E552" s="5"/>
     </row>
     <row r="553" spans="1:5" ht="15" thickBot="1">
       <c r="A553" s="15" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B553" s="9">
-        <f>VLOOKUP(A553,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>146</v>
-      </c>
-      <c r="C553" s="15">
-        <f>C552-25</f>
-        <v>550</v>
-      </c>
-      <c r="D553" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C553" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D553" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0375-01-01</v>
+      </c>
+      <c r="E553" s="5"/>
     </row>
     <row r="554" spans="1:5" ht="15" thickBot="1">
       <c r="A554" s="15" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="B554" s="9">
-        <f>VLOOKUP(A554,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>146</v>
-      </c>
-      <c r="C554" s="15">
-        <f>C553-25</f>
-        <v>525</v>
-      </c>
-      <c r="D554" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C554" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D554" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>0350-01-01</v>
+      </c>
+      <c r="E554" s="5"/>
     </row>
     <row r="555" spans="1:5" ht="15" thickBot="1">
       <c r="A555" s="15" t="s">
@@ -9285,8 +9282,7 @@
         <v>146</v>
       </c>
       <c r="C555" s="15">
-        <f>C554-25</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D555" s="9"/>
     </row>
@@ -9299,8 +9295,8 @@
         <v>146</v>
       </c>
       <c r="C556" s="15">
-        <f>C555-25</f>
-        <v>475</v>
+        <f t="shared" ref="C556:C563" si="27">C555-25</f>
+        <v>575</v>
       </c>
       <c r="D556" s="9"/>
     </row>
@@ -9313,8 +9309,8 @@
         <v>146</v>
       </c>
       <c r="C557" s="15">
-        <f>C556-25</f>
-        <v>450</v>
+        <f t="shared" si="27"/>
+        <v>550</v>
       </c>
       <c r="D557" s="9"/>
     </row>
@@ -9327,8 +9323,8 @@
         <v>146</v>
       </c>
       <c r="C558" s="15">
-        <f>C557-25</f>
-        <v>425</v>
+        <f t="shared" si="27"/>
+        <v>525</v>
       </c>
       <c r="D558" s="9"/>
     </row>
@@ -9341,63 +9337,64 @@
         <v>146</v>
       </c>
       <c r="C559" s="15">
-        <f>C558-25</f>
-        <v>400</v>
+        <f t="shared" si="27"/>
+        <v>500</v>
       </c>
       <c r="D559" s="9"/>
     </row>
     <row r="560" spans="1:5" ht="15" thickBot="1">
       <c r="A560" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B560" s="9">
         <f>VLOOKUP(A560,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C560" s="15">
-        <v>700</v>
+        <f t="shared" si="27"/>
+        <v>475</v>
       </c>
       <c r="D560" s="9"/>
     </row>
     <row r="561" spans="1:5" ht="15" thickBot="1">
       <c r="A561" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B561" s="9">
         <f>VLOOKUP(A561,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C561" s="15">
-        <f>C560-25</f>
-        <v>675</v>
+        <f t="shared" si="27"/>
+        <v>450</v>
       </c>
       <c r="D561" s="9"/>
     </row>
     <row r="562" spans="1:5" ht="15" thickBot="1">
       <c r="A562" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B562" s="9">
         <f>VLOOKUP(A562,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C562" s="15">
-        <f>C561-25</f>
-        <v>650</v>
+        <f t="shared" si="27"/>
+        <v>425</v>
       </c>
       <c r="D562" s="9"/>
     </row>
     <row r="563" spans="1:5" ht="15" thickBot="1">
       <c r="A563" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B563" s="9">
         <f>VLOOKUP(A563,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C563" s="15">
-        <f>C562-25</f>
-        <v>625</v>
+        <f t="shared" si="27"/>
+        <v>400</v>
       </c>
       <c r="D563" s="9"/>
     </row>
@@ -9410,63 +9407,63 @@
         <v>145</v>
       </c>
       <c r="C564" s="15">
-        <f>C563-25</f>
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D564" s="9"/>
     </row>
     <row r="565" spans="1:5" ht="15" thickBot="1">
       <c r="A565" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B565" s="9">
         <f>VLOOKUP(A565,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C565" s="15">
-        <v>700</v>
+        <f>C564-25</f>
+        <v>675</v>
       </c>
       <c r="D565" s="9"/>
     </row>
     <row r="566" spans="1:5" ht="15" thickBot="1">
       <c r="A566" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B566" s="9">
         <f>VLOOKUP(A566,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C566" s="15">
         <f>C565-25</f>
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D566" s="9"/>
     </row>
     <row r="567" spans="1:5" ht="15" thickBot="1">
       <c r="A567" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B567" s="9">
         <f>VLOOKUP(A567,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C567" s="15">
         <f>C566-25</f>
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="D567" s="9"/>
     </row>
     <row r="568" spans="1:5" ht="15" thickBot="1">
       <c r="A568" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B568" s="9">
         <f>VLOOKUP(A568,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C568" s="15">
         <f>C567-25</f>
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="D568" s="9"/>
     </row>
@@ -9479,185 +9476,240 @@
         <v>147</v>
       </c>
       <c r="C569" s="15">
-        <f>C568-25</f>
+        <v>700</v>
+      </c>
+      <c r="D569" s="9"/>
+    </row>
+    <row r="570" spans="1:5" ht="15" thickBot="1">
+      <c r="A570" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B570" s="9">
+        <f>VLOOKUP(A570,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C570" s="15">
+        <f>C569-25</f>
+        <v>675</v>
+      </c>
+      <c r="D570" s="9"/>
+    </row>
+    <row r="571" spans="1:5" ht="15" thickBot="1">
+      <c r="A571" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B571" s="9">
+        <f>VLOOKUP(A571,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C571" s="15">
+        <f>C570-25</f>
+        <v>650</v>
+      </c>
+      <c r="D571" s="9"/>
+    </row>
+    <row r="572" spans="1:5" ht="15" thickBot="1">
+      <c r="A572" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B572" s="9">
+        <f>VLOOKUP(A572,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C572" s="15">
+        <f>C571-25</f>
+        <v>625</v>
+      </c>
+      <c r="D572" s="9"/>
+    </row>
+    <row r="573" spans="1:5" ht="15" thickBot="1">
+      <c r="A573" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B573" s="9">
+        <f>VLOOKUP(A573,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>147</v>
+      </c>
+      <c r="C573" s="15">
+        <f>C572-25</f>
         <v>600</v>
       </c>
-      <c r="D569" s="9"/>
-    </row>
-    <row r="570" spans="1:5" ht="15" thickBot="1">
-      <c r="A570" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B570" s="13">
-        <v>90</v>
-      </c>
-      <c r="C570" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D570" s="9" t="str">
-        <f>CONCATENATE("0",C570,"-01-01")</f>
-        <v>0500-01-01</v>
-      </c>
-      <c r="E570" s="5"/>
-    </row>
-    <row r="571" spans="1:5" ht="15" thickBot="1">
-      <c r="A571" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B571" s="9">
-        <v>90</v>
-      </c>
-      <c r="C571" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D571" s="9" t="str">
-        <f>CONCATENATE("0",C571,"-01-01")</f>
-        <v>0475-01-01</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5" ht="15" thickBot="1">
-      <c r="A572" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B572" s="9">
-        <v>90</v>
-      </c>
-      <c r="C572" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D572" s="9" t="str">
-        <f>CONCATENATE("0",C572,"-01-01")</f>
-        <v>0450-01-01</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5" ht="15" thickBot="1">
-      <c r="A573" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B573" s="9">
-        <v>90</v>
-      </c>
-      <c r="C573" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D573" s="9" t="str">
-        <f>CONCATENATE("0",C573,"-01-01")</f>
-        <v>0425-01-01</v>
-      </c>
+      <c r="D573" s="9"/>
     </row>
     <row r="574" spans="1:5" ht="15" thickBot="1">
       <c r="A574" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B574" s="9">
+      <c r="B574" s="13">
         <v>90</v>
       </c>
       <c r="C574" s="22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D574" s="9" t="str">
         <f>CONCATENATE("0",C574,"-01-01")</f>
+        <v>0500-01-01</v>
+      </c>
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575" spans="1:5" ht="15" thickBot="1">
+      <c r="A575" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B575" s="9">
+        <v>90</v>
+      </c>
+      <c r="C575" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D575" s="9" t="str">
+        <f>CONCATENATE("0",C575,"-01-01")</f>
+        <v>0475-01-01</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="15" thickBot="1">
+      <c r="A576" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B576" s="9">
+        <v>90</v>
+      </c>
+      <c r="C576" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D576" s="9" t="str">
+        <f>CONCATENATE("0",C576,"-01-01")</f>
+        <v>0450-01-01</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="15" thickBot="1">
+      <c r="A577" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B577" s="9">
+        <v>90</v>
+      </c>
+      <c r="C577" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D577" s="9" t="str">
+        <f>CONCATENATE("0",C577,"-01-01")</f>
+        <v>0425-01-01</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="15" thickBot="1">
+      <c r="A578" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B578" s="9">
+        <v>90</v>
+      </c>
+      <c r="C578" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D578" s="9" t="str">
+        <f>CONCATENATE("0",C578,"-01-01")</f>
         <v>0400-01-01</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="15" thickBot="1">
-      <c r="A575" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B575" s="9">
-        <f>VLOOKUP(A575,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C575" s="15">
-        <v>550</v>
-      </c>
-      <c r="D575" s="9"/>
-      <c r="E575" s="2" t="s">
+    <row r="579" spans="1:5" ht="15" thickBot="1">
+      <c r="A579" s="15" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5" ht="15" thickBot="1">
-      <c r="A576" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B576" s="9">
-        <f>VLOOKUP(A576,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C576" s="6">
-        <f>C575-25</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" ht="15" thickBot="1">
-      <c r="A577" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B577" s="9">
-        <f>VLOOKUP(A577,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C577" s="6">
-        <f>C576-25</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="15" thickBot="1">
-      <c r="A578" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B578" s="9">
-        <f>VLOOKUP(A578,Sheet2!$A$1:$B$141,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C578" s="6">
-        <f>C577-25</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="15" thickBot="1">
-      <c r="A579" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="B579" s="9">
         <f>VLOOKUP(A579,Sheet2!$A$1:$B$141,2,FALSE)</f>
         <v>148</v>
       </c>
-      <c r="C579" s="6">
-        <f>C578-25</f>
+      <c r="C579" s="15">
+        <v>550</v>
+      </c>
+      <c r="D579" s="9"/>
+      <c r="E579" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="15" thickBot="1">
+      <c r="A580" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B580" s="9">
+        <f>VLOOKUP(A580,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C580" s="6">
+        <f>C579-25</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="15" thickBot="1">
+      <c r="A581" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B581" s="9">
+        <f>VLOOKUP(A581,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C581" s="6">
+        <f>C580-25</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="15" thickBot="1">
+      <c r="A582" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B582" s="9">
+        <f>VLOOKUP(A582,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C582" s="6">
+        <f>C581-25</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="15" thickBot="1">
+      <c r="A583" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B583" s="9">
+        <f>VLOOKUP(A583,Sheet2!$A$1:$B$141,2,FALSE)</f>
+        <v>148</v>
+      </c>
+      <c r="C583" s="6">
+        <f>C582-25</f>
         <v>450</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
-      <c r="A580" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B580" s="2">
+    <row r="584" spans="1:5">
+      <c r="A584" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B584" s="2">
         <v>149</v>
       </c>
-      <c r="C580" s="6">
+      <c r="C584" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
-      <c r="A581" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B581" s="2">
+    <row r="585" spans="1:5">
+      <c r="A585" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B585" s="2">
         <v>149</v>
       </c>
-      <c r="C581" s="6">
+      <c r="C585" s="6">
         <v>475</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
-      <c r="A582" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B582" s="2">
+    <row r="586" spans="1:5">
+      <c r="A586" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B586" s="2">
         <v>149</v>
       </c>
-      <c r="C582" s="6">
+      <c r="C586" s="6">
         <v>450</v>
       </c>
     </row>
@@ -10807,7 +10859,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" s="1">
         <v>148</v>
